--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k024c6002\グループ演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967A9434-370D-4D27-9A81-C8F65190C45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91F5B74-F185-4891-810C-A9A678AB25E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="757" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="RECLEN" localSheetId="2">予約情報!$D$6</definedName>
     <definedName name="RECLEN">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="146">
   <si>
     <t>備考</t>
   </si>
@@ -706,21 +706,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>面積</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ROOM_WIDTH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FLOAT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ベッド数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
@@ -773,6 +758,28 @@
   </si>
   <si>
     <t>○○○○@○○.comのような感じで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FREADGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋説明</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROOM_EXPLAIN</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -786,7 +793,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -872,6 +879,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1420,7 +1434,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1606,6 +1620,25 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1615,9 +1648,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1630,22 +1660,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1703,6 +1717,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5150,20 +5165,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="68" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="68" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="68" customWidth="1"/>
     <col min="6" max="6" width="11" style="68" customWidth="1"/>
     <col min="7" max="7" width="9" style="68"/>
-    <col min="8" max="15" width="7.08984375" style="68" customWidth="1"/>
+    <col min="8" max="15" width="7.125" style="68" customWidth="1"/>
     <col min="16" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -5182,11 +5197,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="44"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="64"/>
       <c r="C3" s="3"/>
@@ -5203,8 +5218,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
@@ -5226,18 +5241,18 @@
       <c r="G5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="105"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
       <c r="B6" s="86" t="s">
         <v>34</v>
@@ -5247,16 +5262,16 @@
       <c r="E6" s="52"/>
       <c r="F6" s="83"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="124"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
@@ -5280,16 +5295,16 @@
       <c r="G7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="111"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="121"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
@@ -5313,16 +5328,16 @@
       <c r="G8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-    </row>
-    <row r="9" spans="1:20" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
         <v>38</v>
       </c>
@@ -5346,16 +5361,16 @@
       <c r="G9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="111"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88" t="s">
         <v>39</v>
       </c>
@@ -5379,21 +5394,21 @@
       <c r="G10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="110"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87" t="s">
         <v>40</v>
       </c>
@@ -5417,21 +5432,21 @@
       <c r="G11" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="117"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="87" t="s">
         <v>41</v>
       </c>
@@ -5443,33 +5458,33 @@
       </c>
       <c r="D12" s="67">
         <f>SUM(部屋!E10:E21)</f>
-        <v>31</v>
+        <v>1228</v>
       </c>
       <c r="E12" s="67">
         <v>10000</v>
       </c>
       <c r="F12" s="67">
         <f t="shared" si="0"/>
-        <v>310000</v>
+        <v>12280000</v>
       </c>
       <c r="G12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="110"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
       <c r="B13" s="79"/>
       <c r="C13" s="89"/>
@@ -5477,21 +5492,21 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="98"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="117"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54"/>
       <c r="B14" s="79"/>
       <c r="C14" s="51"/>
@@ -5499,16 +5514,16 @@
       <c r="E14" s="52"/>
       <c r="F14" s="67"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="108"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="110"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
       <c r="B15" s="86"/>
       <c r="C15" s="51"/>
@@ -5516,16 +5531,16 @@
       <c r="E15" s="52"/>
       <c r="F15" s="67"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="124"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="113"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
       <c r="B16" s="81"/>
       <c r="C16" s="88"/>
@@ -5533,16 +5548,16 @@
       <c r="E16" s="52"/>
       <c r="F16" s="67"/>
       <c r="G16" s="90"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="108"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
       <c r="B17" s="81"/>
       <c r="C17" s="88"/>
@@ -5550,16 +5565,16 @@
       <c r="E17" s="52"/>
       <c r="F17" s="67"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="120"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="106"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
       <c r="B18" s="81"/>
       <c r="C18" s="88"/>
@@ -5567,16 +5582,16 @@
       <c r="E18" s="52"/>
       <c r="F18" s="67"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="123"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="107"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88"/>
@@ -5584,16 +5599,16 @@
       <c r="E19" s="52"/>
       <c r="F19" s="67"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="106"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="112"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
       <c r="B20" s="81"/>
       <c r="C20" s="88"/>
@@ -5601,16 +5616,16 @@
       <c r="E20" s="52"/>
       <c r="F20" s="67"/>
       <c r="G20" s="90"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="120"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="106"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="112"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
       <c r="B21" s="81"/>
       <c r="C21" s="51"/>
@@ -5618,16 +5633,16 @@
       <c r="E21" s="52"/>
       <c r="F21" s="67"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="120"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="106"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="112"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="87"/>
       <c r="B22" s="81"/>
       <c r="C22" s="51"/>
@@ -5635,16 +5650,16 @@
       <c r="E22" s="52"/>
       <c r="F22" s="67"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="106"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="112"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="87"/>
       <c r="B23" s="81"/>
       <c r="C23" s="51"/>
@@ -5652,16 +5667,16 @@
       <c r="E23" s="52"/>
       <c r="F23" s="67"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54"/>
       <c r="B24" s="81"/>
       <c r="C24" s="51"/>
@@ -5669,16 +5684,16 @@
       <c r="E24" s="52"/>
       <c r="F24" s="67"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="108"/>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="110"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="54"/>
       <c r="B25" s="81"/>
       <c r="C25" s="51"/>
@@ -5686,16 +5701,16 @@
       <c r="E25" s="52"/>
       <c r="F25" s="67"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="108"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="108"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="110"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54"/>
       <c r="B26" s="81"/>
       <c r="C26" s="51"/>
@@ -5703,16 +5718,16 @@
       <c r="E26" s="52"/>
       <c r="F26" s="67"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="108"/>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54"/>
       <c r="B27" s="81"/>
       <c r="C27" s="51"/>
@@ -5720,16 +5735,16 @@
       <c r="E27" s="52"/>
       <c r="F27" s="67"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="108"/>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="108"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="110"/>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54"/>
       <c r="B28" s="81"/>
       <c r="C28" s="51"/>
@@ -5737,16 +5752,16 @@
       <c r="E28" s="52"/>
       <c r="F28" s="67"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="120"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="106"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="112"/>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54"/>
       <c r="B29" s="81"/>
       <c r="C29" s="51"/>
@@ -5754,16 +5769,16 @@
       <c r="E29" s="52"/>
       <c r="F29" s="67"/>
       <c r="G29" s="53"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="108"/>
-    </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="108"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="110"/>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54"/>
       <c r="B30" s="81"/>
       <c r="C30" s="51"/>
@@ -5771,16 +5786,16 @@
       <c r="E30" s="52"/>
       <c r="F30" s="67"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="108"/>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="110"/>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
       <c r="B31" s="81"/>
       <c r="C31" s="51"/>
@@ -5788,16 +5803,16 @@
       <c r="E31" s="52"/>
       <c r="F31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="108"/>
-    </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="108"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54"/>
       <c r="B32" s="81"/>
       <c r="C32" s="51"/>
@@ -5805,16 +5820,16 @@
       <c r="E32" s="52"/>
       <c r="F32" s="67"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="123"/>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="107"/>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="81"/>
       <c r="C33" s="51"/>
@@ -5822,16 +5837,16 @@
       <c r="E33" s="52"/>
       <c r="F33" s="67"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="123"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="107"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="81"/>
       <c r="C34" s="51"/>
@@ -5839,16 +5854,16 @@
       <c r="E34" s="52"/>
       <c r="F34" s="67"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="123"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="107"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="81"/>
       <c r="C35" s="51"/>
@@ -5856,16 +5871,16 @@
       <c r="E35" s="52"/>
       <c r="F35" s="67"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="123"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="107"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="81"/>
       <c r="C36" s="51"/>
@@ -5873,16 +5888,16 @@
       <c r="E36" s="52"/>
       <c r="F36" s="67"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="119"/>
-      <c r="O36" s="120"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="106"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="112"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="81"/>
       <c r="C37" s="51"/>
@@ -5890,16 +5905,16 @@
       <c r="E37" s="52"/>
       <c r="F37" s="67"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="120"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="106"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="112"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55"/>
       <c r="B38" s="81"/>
       <c r="C38" s="56"/>
@@ -5907,19 +5922,19 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="122"/>
-    </row>
-    <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="115"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="69"/>
       <c r="C40" s="5"/>
@@ -5936,16 +5951,34 @@
       <c r="N40" s="5"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H44" s="68" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:O35"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H32:O32"/>
     <mergeCell ref="H33:O33"/>
@@ -5962,24 +5995,6 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.52" right="0.21" top="0.81" bottom="0.27" header="0.36" footer="0.2"/>
@@ -5996,31 +6011,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -6039,8 +6054,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -6057,8 +6072,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -6089,7 +6104,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>45</v>
       </c>
@@ -6120,8 +6135,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -6160,7 +6175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -6190,7 +6205,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -6230,7 +6245,7 @@
         <v>/* 名前   日本語なら10文字 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -6270,7 +6285,7 @@
         <v>/* ユーザーパスワード    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -6298,7 +6313,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>29</v>
@@ -6312,7 +6327,7 @@
         <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -6352,7 +6367,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -6394,7 +6409,7 @@
         <v>/* ユーザーID    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -6436,7 +6451,7 @@
         <v>/* ログイン    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -6478,7 +6493,7 @@
         <v>/* ロール    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
@@ -6496,7 +6511,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
@@ -6514,7 +6529,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -6532,7 +6547,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -6550,7 +6565,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -6568,7 +6583,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -6598,7 +6613,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -6628,7 +6643,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -6658,7 +6673,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -6688,7 +6703,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -6718,7 +6733,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -6748,7 +6763,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -6778,7 +6793,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -6808,7 +6823,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -6838,7 +6853,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -6868,7 +6883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -6898,7 +6913,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -6928,7 +6943,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -6958,7 +6973,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -6988,7 +7003,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -7018,7 +7033,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -7048,7 +7063,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -7078,7 +7093,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -7108,7 +7123,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -7138,7 +7153,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -7168,7 +7183,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -7181,7 +7196,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -7194,7 +7209,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -7215,37 +7230,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -7290,27 +7305,27 @@
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.453125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -7329,8 +7344,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7347,8 +7362,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -7379,7 +7394,7 @@
       <c r="N5" s="136"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>46</v>
       </c>
@@ -7410,8 +7425,8 @@
       <c r="N6" s="129"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -7450,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -7480,7 +7495,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -7520,7 +7535,7 @@
         <v>/* 予約情報ID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -7562,7 +7577,7 @@
         <v>/* ユーザーID   予約した人のID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -7604,7 +7619,7 @@
         <v>/* プランID   予約したプランのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -7644,7 +7659,7 @@
         <v>/* 予約日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -7684,7 +7699,7 @@
         <v>/* 宿泊開始日    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -7724,7 +7739,7 @@
         <v>/* 宿泊終了日    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -7754,7 +7769,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -7784,7 +7799,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -7814,7 +7829,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -7844,7 +7859,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -7874,7 +7889,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -7904,7 +7919,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -7934,7 +7949,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -7964,7 +7979,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -7994,7 +8009,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -8024,7 +8039,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -8054,7 +8069,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -8084,7 +8099,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -8114,7 +8129,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -8144,7 +8159,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -8176,7 +8191,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -8208,7 +8223,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -8240,7 +8255,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -8272,7 +8287,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -8304,7 +8319,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -8336,7 +8351,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -8368,7 +8383,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -8400,7 +8415,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -8432,7 +8447,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -8464,7 +8479,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -8496,7 +8511,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -8528,7 +8543,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -8560,7 +8575,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -8592,7 +8607,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -8622,19 +8637,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8655,25 +8670,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -8718,27 +8733,27 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.453125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -8757,8 +8772,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8775,8 +8790,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -8807,7 +8822,7 @@
       <c r="N5" s="136"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>47</v>
       </c>
@@ -8838,8 +8853,8 @@
       <c r="N6" s="129"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -8878,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -8908,7 +8923,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -8948,7 +8963,7 @@
         <v>/* 口コミID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -8990,7 +9005,7 @@
         <v>/* ユーザーID   記入したユーザーのID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -9032,7 +9047,7 @@
         <v>/* ホテルID   記入されたホテルのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -9072,7 +9087,7 @@
         <v>/* 口コミ日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -9114,7 +9129,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -9156,7 +9171,7 @@
         <v>/* 口コミ内容   1～5の五段階評価 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -9186,7 +9201,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -9216,7 +9231,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -9246,7 +9261,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -9276,7 +9291,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -9306,7 +9321,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -9336,7 +9351,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -9366,7 +9381,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -9396,7 +9411,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -9426,7 +9441,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -9456,7 +9471,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -9486,7 +9501,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -9516,7 +9531,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -9546,7 +9561,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -9576,7 +9591,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -9608,7 +9623,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -9640,7 +9655,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -9672,7 +9687,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -9704,7 +9719,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -9736,7 +9751,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -9768,7 +9783,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -9800,7 +9815,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -9832,7 +9847,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -9864,7 +9879,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -9896,7 +9911,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -9928,7 +9943,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -9960,7 +9975,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -9992,7 +10007,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -10024,7 +10039,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -10054,19 +10069,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -10087,25 +10102,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -10146,31 +10161,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -10189,8 +10204,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -10207,8 +10222,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -10239,7 +10254,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>49</v>
       </c>
@@ -10270,8 +10285,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -10310,7 +10325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -10340,7 +10355,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -10380,7 +10395,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -10420,7 +10435,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -10462,7 +10477,7 @@
         <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -10504,7 +10519,7 @@
         <v>/* 電話番号   08054932003みたいな感じ */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -10544,7 +10559,7 @@
         <v>/* 建物名    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -10584,7 +10599,7 @@
         <v>/* ホテル名    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -10614,7 +10629,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
@@ -10632,7 +10647,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
@@ -10650,7 +10665,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -10668,7 +10683,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -10686,7 +10701,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -10704,7 +10719,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -10734,7 +10749,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -10764,7 +10779,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -10794,7 +10809,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -10824,7 +10839,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -10854,7 +10869,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -10884,7 +10899,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -10914,7 +10929,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -10944,7 +10959,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -10974,7 +10989,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -11004,7 +11019,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -11034,7 +11049,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -11064,7 +11079,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -11094,7 +11109,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -11124,7 +11139,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -11154,7 +11169,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -11184,7 +11199,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -11214,7 +11229,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -11244,7 +11259,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -11274,7 +11289,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -11304,7 +11319,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -11317,7 +11332,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -11330,7 +11345,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -11351,37 +11366,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -11426,27 +11441,27 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -11465,8 +11480,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -11483,8 +11498,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -11515,7 +11530,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>48</v>
       </c>
@@ -11546,8 +11561,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -11586,7 +11601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -11616,7 +11631,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -11656,7 +11671,7 @@
         <v>/* プランID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -11696,7 +11711,7 @@
         <v>/* プラン名    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -11736,7 +11751,7 @@
         <v>/* 最大人数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -11776,7 +11791,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -11816,7 +11831,7 @@
         <v>/* 料金    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -11856,7 +11871,7 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -11886,7 +11901,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -11906,7 +11921,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -11926,7 +11941,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -11944,7 +11959,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -11962,7 +11977,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -11980,7 +11995,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -12010,7 +12025,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -12040,7 +12055,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -12070,7 +12085,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -12100,7 +12115,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -12130,7 +12145,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -12160,7 +12175,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -12190,7 +12205,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -12220,7 +12235,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -12250,7 +12265,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -12280,7 +12295,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -12310,7 +12325,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -12340,7 +12355,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -12370,7 +12385,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -12400,7 +12415,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -12430,7 +12445,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -12460,7 +12475,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -12490,7 +12505,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -12520,7 +12535,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -12550,7 +12565,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -12580,7 +12595,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -12593,7 +12608,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -12606,7 +12621,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -12627,37 +12642,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -12695,31 +12710,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -12738,8 +12753,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -12756,8 +12771,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -12788,7 +12803,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>50</v>
       </c>
@@ -12798,14 +12813,14 @@
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>31</v>
+        <v>1228</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>310000</v>
+        <v>12280000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -12819,8 +12834,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -12859,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -12889,7 +12904,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -12929,7 +12944,7 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -12940,10 +12955,10 @@
         <v>130</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="E11" s="102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -12962,28 +12977,28 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ROOM_WIDTH FLOAT(4)</v>
+        <v>BED_NUMBER INT(2)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
-        <v>/* 面積    */</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* ベッド数    */</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>133</v>
-      </c>
       <c r="D12" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -13002,22 +13017,22 @@
       </c>
       <c r="Q12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>BED_NUMBER INT(2)</v>
+        <v>BATHROOM BOOLEAN(1)</v>
       </c>
       <c r="R12" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ベッド数    */</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* バスルーム    */</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>135</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>73</v>
@@ -13042,22 +13057,22 @@
       </c>
       <c r="Q13" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>BATHROOM BOOLEAN(1)</v>
+        <v>DRYER BOOLEAN(1)</v>
       </c>
       <c r="R13" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* バスルーム    */</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* ドライヤー    */</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>136</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>137</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>73</v>
@@ -13082,22 +13097,22 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>DRYER BOOLEAN(1)</v>
+        <v>TV BOOLEAN(1)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ドライヤー    */</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* テレビ    */</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>138</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>139</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>73</v>
@@ -13122,22 +13137,22 @@
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>TV BOOLEAN(1)</v>
+        <v>WI_FI BOOLEAN(1)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* テレビ    */</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* WIFI    */</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
       <c r="B16" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>140</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>141</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>73</v>
@@ -13162,21 +13177,21 @@
       </c>
       <c r="Q16" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>WI_FI BOOLEAN(1)</v>
+        <v>PET BOOLEAN(1)</v>
       </c>
       <c r="R16" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* WIFI    */</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* ペット    */</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
       <c r="B17" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="150" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -13200,24 +13215,34 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>PET BOOLEAN(1)</v>
+        <v>FREADGE BOOLEAN(1)</v>
       </c>
       <c r="R17" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ペット    */</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* 冷蔵庫    */</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="102"/>
+      <c r="B18" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="150" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="102">
+        <v>1200</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -13226,8 +13251,16 @@
       <c r="N18" s="26"/>
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>ROOM_EXPLAIN VARCHAR(1200)</v>
+      </c>
+      <c r="R18" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 部屋説明    */</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -13247,7 +13280,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -13267,7 +13300,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -13287,7 +13320,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -13317,7 +13350,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -13347,7 +13380,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -13377,7 +13410,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -13407,7 +13440,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -13437,7 +13470,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -13467,7 +13500,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -13497,7 +13530,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -13527,7 +13560,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -13557,7 +13590,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -13587,7 +13620,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -13617,7 +13650,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -13647,7 +13680,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -13677,7 +13710,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -13707,7 +13740,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -13737,7 +13770,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -13767,7 +13800,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -13797,7 +13830,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -13827,7 +13860,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -13857,7 +13890,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -13887,7 +13920,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -13900,7 +13933,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -13913,7 +13946,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -13934,37 +13967,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91F5B74-F185-4891-810C-A9A678AB25E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A49A9-2D09-4781-9DEA-F0AC882F11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="757" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="757" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="148">
   <si>
     <t>備考</t>
   </si>
@@ -780,6 +780,17 @@
   </si>
   <si>
     <t>ROOM_EXPLAIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラン説明</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PLAN_EXPLAIN</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1620,25 +1631,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1648,6 +1641,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1660,6 +1656,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1717,7 +1729,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -5241,16 +5252,16 @@
       <c r="G5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="106"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
@@ -5262,14 +5273,14 @@
       <c r="E6" s="52"/>
       <c r="F6" s="83"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
+      <c r="O6" s="115"/>
     </row>
     <row r="7" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
@@ -5295,14 +5306,14 @@
       <c r="G7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="121"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="111"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="111"/>
+      <c r="L7" s="111"/>
+      <c r="M7" s="111"/>
+      <c r="N7" s="111"/>
+      <c r="O7" s="112"/>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87" t="s">
@@ -5328,14 +5339,14 @@
       <c r="G8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
+      <c r="H8" s="107"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="109"/>
     </row>
     <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
@@ -5361,14 +5372,14 @@
       <c r="G9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="112"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88" t="s">
@@ -5382,26 +5393,26 @@
       </c>
       <c r="D10" s="52">
         <f>SUM(ホテル!E10:E121)</f>
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="E10" s="52">
         <v>10000</v>
       </c>
       <c r="F10" s="52">
         <f t="shared" si="0"/>
-        <v>1620000</v>
+        <v>3320000</v>
       </c>
       <c r="G10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="109"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
@@ -5420,26 +5431,26 @@
       </c>
       <c r="D11" s="97">
         <f>SUM(プラン!E10:E21)</f>
-        <v>103</v>
+        <v>703</v>
       </c>
       <c r="E11" s="67">
         <v>10000</v>
       </c>
       <c r="F11" s="84">
         <f t="shared" si="0"/>
-        <v>1030000</v>
+        <v>7030000</v>
       </c>
       <c r="G11" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="118"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
@@ -5458,26 +5469,26 @@
       </c>
       <c r="D12" s="67">
         <f>SUM(部屋!E10:E21)</f>
-        <v>1228</v>
+        <v>628</v>
       </c>
       <c r="E12" s="67">
         <v>10000</v>
       </c>
       <c r="F12" s="67">
         <f t="shared" si="0"/>
-        <v>12280000</v>
+        <v>6280000</v>
       </c>
       <c r="G12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="110"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="109"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
@@ -5492,14 +5503,14 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="98"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="118"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -5514,14 +5525,14 @@
       <c r="E14" s="52"/>
       <c r="F14" s="67"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="110"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="108"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="109"/>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
@@ -5531,14 +5542,14 @@
       <c r="E15" s="52"/>
       <c r="F15" s="67"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="113"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="125"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
@@ -5548,14 +5559,14 @@
       <c r="E16" s="52"/>
       <c r="F16" s="67"/>
       <c r="G16" s="90"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="108"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="109"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
@@ -5565,14 +5576,14 @@
       <c r="E17" s="52"/>
       <c r="F17" s="67"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="121"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
@@ -5582,14 +5593,14 @@
       <c r="E18" s="52"/>
       <c r="F18" s="67"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="119"/>
+      <c r="J18" s="119"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="M18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="124"/>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
@@ -5599,14 +5610,14 @@
       <c r="E19" s="52"/>
       <c r="F19" s="67"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="112"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
@@ -5616,14 +5627,14 @@
       <c r="E20" s="52"/>
       <c r="F20" s="67"/>
       <c r="G20" s="90"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="112"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="121"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
@@ -5633,14 +5644,14 @@
       <c r="E21" s="52"/>
       <c r="F21" s="67"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="112"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="121"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="87"/>
@@ -5650,14 +5661,14 @@
       <c r="E22" s="52"/>
       <c r="F22" s="67"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="121"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="87"/>
@@ -5667,14 +5678,14 @@
       <c r="E23" s="52"/>
       <c r="F23" s="67"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108"/>
+      <c r="O23" s="109"/>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54"/>
@@ -5684,14 +5695,14 @@
       <c r="E24" s="52"/>
       <c r="F24" s="67"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="110"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
+      <c r="M24" s="108"/>
+      <c r="N24" s="108"/>
+      <c r="O24" s="109"/>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="54"/>
@@ -5701,14 +5712,14 @@
       <c r="E25" s="52"/>
       <c r="F25" s="67"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="110"/>
+      <c r="H25" s="107"/>
+      <c r="I25" s="108"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="109"/>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54"/>
@@ -5718,14 +5729,14 @@
       <c r="E26" s="52"/>
       <c r="F26" s="67"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
+      <c r="H26" s="107"/>
+      <c r="I26" s="108"/>
+      <c r="J26" s="108"/>
+      <c r="K26" s="108"/>
+      <c r="L26" s="108"/>
+      <c r="M26" s="108"/>
+      <c r="N26" s="108"/>
+      <c r="O26" s="109"/>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54"/>
@@ -5735,14 +5746,14 @@
       <c r="E27" s="52"/>
       <c r="F27" s="67"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="108"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="108"/>
+      <c r="M27" s="108"/>
+      <c r="N27" s="108"/>
+      <c r="O27" s="109"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54"/>
@@ -5752,14 +5763,14 @@
       <c r="E28" s="52"/>
       <c r="F28" s="67"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="112"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="120"/>
+      <c r="M28" s="120"/>
+      <c r="N28" s="120"/>
+      <c r="O28" s="121"/>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54"/>
@@ -5769,14 +5780,14 @@
       <c r="E29" s="52"/>
       <c r="F29" s="67"/>
       <c r="G29" s="53"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="108"/>
+      <c r="L29" s="108"/>
+      <c r="M29" s="108"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="109"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54"/>
@@ -5786,14 +5797,14 @@
       <c r="E30" s="52"/>
       <c r="F30" s="67"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="110"/>
+      <c r="H30" s="107"/>
+      <c r="I30" s="108"/>
+      <c r="J30" s="108"/>
+      <c r="K30" s="108"/>
+      <c r="L30" s="108"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="108"/>
+      <c r="O30" s="109"/>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
@@ -5803,14 +5814,14 @@
       <c r="E31" s="52"/>
       <c r="F31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="110"/>
+      <c r="H31" s="107"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="108"/>
+      <c r="K31" s="108"/>
+      <c r="L31" s="108"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="108"/>
+      <c r="O31" s="109"/>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54"/>
@@ -5820,14 +5831,14 @@
       <c r="E32" s="52"/>
       <c r="F32" s="67"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="119"/>
+      <c r="J32" s="119"/>
+      <c r="K32" s="119"/>
+      <c r="L32" s="119"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="124"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
@@ -5837,14 +5848,14 @@
       <c r="E33" s="52"/>
       <c r="F33" s="67"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="107"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="124"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
@@ -5854,14 +5865,14 @@
       <c r="E34" s="52"/>
       <c r="F34" s="67"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="107"/>
+      <c r="H34" s="119"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="119"/>
+      <c r="M34" s="119"/>
+      <c r="N34" s="119"/>
+      <c r="O34" s="124"/>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
@@ -5871,14 +5882,14 @@
       <c r="E35" s="52"/>
       <c r="F35" s="67"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="107"/>
+      <c r="H35" s="119"/>
+      <c r="I35" s="119"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="119"/>
+      <c r="L35" s="119"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="124"/>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
@@ -5888,14 +5899,14 @@
       <c r="E36" s="52"/>
       <c r="F36" s="67"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="112"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="120"/>
+      <c r="M36" s="120"/>
+      <c r="N36" s="120"/>
+      <c r="O36" s="121"/>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
@@ -5905,14 +5916,14 @@
       <c r="E37" s="52"/>
       <c r="F37" s="67"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="112"/>
+      <c r="H37" s="119"/>
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="120"/>
+      <c r="M37" s="120"/>
+      <c r="N37" s="120"/>
+      <c r="O37" s="121"/>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55"/>
@@ -5922,14 +5933,14 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="115"/>
+      <c r="H38" s="122"/>
+      <c r="I38" s="122"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="122"/>
+      <c r="M38" s="122"/>
+      <c r="N38" s="122"/>
+      <c r="O38" s="123"/>
     </row>
     <row r="39" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="65"/>
@@ -5961,24 +5972,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H32:O32"/>
     <mergeCell ref="H33:O33"/>
@@ -5995,6 +5988,24 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.52" right="0.21" top="0.81" bottom="0.27" header="0.36" footer="0.2"/>
@@ -6012,7 +6023,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6074,10 +6085,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -6093,22 +6104,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="91" t="s">
         <v>64</v>
       </c>
@@ -6126,65 +6137,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="133"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -6200,7 +6211,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="139"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -7301,7 +7312,7 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
@@ -7364,10 +7375,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -7383,22 +7394,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="143"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="144"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="91" t="s">
         <v>51</v>
       </c>
@@ -7416,65 +7427,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="148"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="134" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="148" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="149" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -7490,7 +7501,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="149"/>
+      <c r="O9" s="150"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -8729,8 +8740,8 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8792,10 +8803,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -8811,22 +8822,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="143"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
+      <c r="O5" s="144"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="145" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="91" t="s">
         <v>92</v>
       </c>
@@ -8844,65 +8855,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="130"/>
+      <c r="K6" s="130"/>
+      <c r="L6" s="130"/>
+      <c r="M6" s="130"/>
+      <c r="N6" s="130"/>
+      <c r="O6" s="148"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="140" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="148" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="149" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -8918,7 +8929,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="149"/>
+      <c r="O9" s="150"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -10162,7 +10173,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10224,10 +10235,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -10243,98 +10254,98 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="91" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>1620000</v>
+        <v>3320000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="133"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -10350,7 +10361,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="139"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -10406,10 +10417,10 @@
         <v>68</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E11" s="102">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -10428,7 +10439,7 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ADDRESS CHAR(60)</v>
+        <v>ADDRESS VARCHAR(100)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
@@ -10446,10 +10457,10 @@
         <v>112</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E12" s="102">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -10470,7 +10481,7 @@
       </c>
       <c r="Q12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>EMAIL CHAR(30)</v>
+        <v>EMAIL VARCHAR(80)</v>
       </c>
       <c r="R12" s="71" t="str">
         <f t="shared" si="1"/>
@@ -10530,10 +10541,10 @@
         <v>118</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E14" s="102">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -10552,7 +10563,7 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>BUILDING_NAME CHAR(20)</v>
+        <v>BUILDING_NAME VARCHAR(60)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
@@ -10570,10 +10581,10 @@
         <v>120</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E15" s="102">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -10592,7 +10603,7 @@
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>HOTEL_NAME CHAR(20)</v>
+        <v>HOTEL_NAME VARCHAR(60)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
@@ -11438,7 +11449,7 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11500,10 +11511,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -11519,98 +11530,98 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="129" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="91" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>103</v>
+        <v>703</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>1030000</v>
+        <v>7030000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="133"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -11626,7 +11637,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="139"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -11802,7 +11813,7 @@
         <v>126</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E14" s="102">
         <v>10</v>
@@ -11824,7 +11835,7 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>CHARGE CHAR(10)</v>
+        <v>CHARGE INT(10)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
@@ -11875,13 +11886,23 @@
       <c r="A16" s="15">
         <v>7</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="102"/>
+      <c r="B16" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="102">
+        <v>600</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -11894,11 +11915,11 @@
       </c>
       <c r="Q16" s="71" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> ()</v>
+        <v>PLAN_EXPLAIN VARCHAR(600)</v>
       </c>
       <c r="R16" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/*     */</v>
+        <v>/* プラン説明    */</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
@@ -12710,8 +12731,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12773,10 +12794,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -12792,98 +12813,98 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="126" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="127"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="127"/>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="91" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>1228</v>
+        <v>628</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>12280000</v>
+        <v>6280000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="133"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="140" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="137"/>
+      <c r="O8" s="138" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="142"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
+      <c r="H9" s="135"/>
+      <c r="I9" s="135"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -12899,7 +12920,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="139"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -13191,7 +13212,7 @@
       <c r="B17" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="150" t="s">
+      <c r="C17" s="103" t="s">
         <v>143</v>
       </c>
       <c r="D17" s="32" t="s">
@@ -13229,14 +13250,14 @@
       <c r="B18" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="103" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>76</v>
       </c>
       <c r="E18" s="102">
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -13253,7 +13274,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ROOM_EXPLAIN VARCHAR(1200)</v>
+        <v>ROOM_EXPLAIN VARCHAR(600)</v>
       </c>
       <c r="R18" s="71" t="str">
         <f t="shared" si="1"/>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k024c6002\グループ演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541A49A9-2D09-4781-9DEA-F0AC882F11C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3F9BF-AAA6-49FC-A4BF-1CBE49A2CDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="757" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="757" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="RECLEN" localSheetId="2">予約情報!$D$6</definedName>
     <definedName name="RECLEN">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="148">
   <si>
     <t>備考</t>
   </si>
@@ -384,10 +384,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ROLR</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CHAR</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -706,6 +702,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>面積</t>
+    <rPh sb="0" eb="2">
+      <t>メンセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROOM_WIDTH</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FLOAT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ベッド数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
@@ -761,36 +772,28 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>冷蔵庫</t>
-    <rPh sb="0" eb="3">
-      <t>レイゾウコ</t>
+    <t>ログイン中→ture　ログアウト→false</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>FREADGE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>部屋説明</t>
-    <rPh sb="0" eb="4">
-      <t>ヘヤセツメイ</t>
+    <t>1→会員　2→ホテル　3→管理者　0→ログインしていない</t>
+    <rPh sb="2" eb="4">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>カンリシャ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ROOM_EXPLAIN</t>
+    <t>ROLE</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プラン説明</t>
-    <rPh sb="3" eb="5">
-      <t>セツメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PLAN_EXPLAIN</t>
+    <t>ランダムに</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -804,7 +807,7 @@
     <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="179" formatCode="#,###,###,###,##0.00"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -890,13 +893,6 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1445,7 +1441,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -1631,7 +1627,25 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1641,9 +1655,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1656,22 +1667,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5176,20 +5171,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="68" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="68" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="68" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="68" customWidth="1"/>
     <col min="6" max="6" width="11" style="68" customWidth="1"/>
     <col min="7" max="7" width="9" style="68"/>
-    <col min="8" max="15" width="7.125" style="68" customWidth="1"/>
+    <col min="8" max="15" width="7.08984375" style="68" customWidth="1"/>
     <col min="16" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -5208,11 +5203,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="44"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="64"/>
       <c r="C3" s="3"/>
@@ -5229,8 +5224,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
@@ -5252,18 +5247,18 @@
       <c r="G5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="104" t="s">
+      <c r="H5" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="106"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="54"/>
       <c r="B6" s="86" t="s">
         <v>34</v>
@@ -5273,16 +5268,16 @@
       <c r="E6" s="52"/>
       <c r="F6" s="83"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
-      <c r="J6" s="114"/>
-      <c r="K6" s="114"/>
-      <c r="L6" s="114"/>
-      <c r="M6" s="114"/>
-      <c r="N6" s="114"/>
-      <c r="O6" s="115"/>
-    </row>
-    <row r="7" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="124"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
@@ -5294,28 +5289,28 @@
       </c>
       <c r="D7" s="20">
         <f>SUM(ユーザー情報!E10:E21)</f>
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E7" s="52">
         <v>10000</v>
       </c>
       <c r="F7" s="83">
         <f t="shared" ref="F7:F12" si="0">SUMPRODUCT(D7,E7)</f>
-        <v>1560000</v>
+        <v>1510000</v>
       </c>
       <c r="G7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="110"/>
-      <c r="I7" s="111"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="111"/>
-      <c r="L7" s="111"/>
-      <c r="M7" s="111"/>
-      <c r="N7" s="111"/>
-      <c r="O7" s="112"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="121"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
@@ -5339,16 +5334,16 @@
       <c r="G8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="109"/>
-    </row>
-    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
         <v>38</v>
       </c>
@@ -5372,16 +5367,16 @@
       <c r="G9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="112"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="88" t="s">
         <v>39</v>
       </c>
@@ -5393,33 +5388,33 @@
       </c>
       <c r="D10" s="52">
         <f>SUM(ホテル!E10:E121)</f>
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="E10" s="52">
         <v>10000</v>
       </c>
       <c r="F10" s="52">
         <f t="shared" si="0"/>
-        <v>3320000</v>
+        <v>1620000</v>
       </c>
       <c r="G10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="109"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="110"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
         <v>40</v>
       </c>
@@ -5431,33 +5426,33 @@
       </c>
       <c r="D11" s="97">
         <f>SUM(プラン!E10:E21)</f>
-        <v>703</v>
+        <v>103</v>
       </c>
       <c r="E11" s="67">
         <v>10000</v>
       </c>
       <c r="F11" s="84">
         <f t="shared" si="0"/>
-        <v>7030000</v>
+        <v>1030000</v>
       </c>
       <c r="G11" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="116"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="118"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
         <v>41</v>
       </c>
@@ -5469,33 +5464,33 @@
       </c>
       <c r="D12" s="67">
         <f>SUM(部屋!E10:E21)</f>
-        <v>628</v>
+        <v>31</v>
       </c>
       <c r="E12" s="67">
         <v>10000</v>
       </c>
       <c r="F12" s="67">
         <f t="shared" si="0"/>
-        <v>6280000</v>
+        <v>310000</v>
       </c>
       <c r="G12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="107"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="108"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="108"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="109"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="110"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87"/>
       <c r="B13" s="79"/>
       <c r="C13" s="89"/>
@@ -5503,21 +5498,21 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="98"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="118"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="54"/>
       <c r="B14" s="79"/>
       <c r="C14" s="51"/>
@@ -5525,16 +5520,16 @@
       <c r="E14" s="52"/>
       <c r="F14" s="67"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="108"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="109"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="110"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87"/>
       <c r="B15" s="86"/>
       <c r="C15" s="51"/>
@@ -5542,16 +5537,16 @@
       <c r="E15" s="52"/>
       <c r="F15" s="67"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="107"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="107"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="107"/>
-      <c r="N15" s="107"/>
-      <c r="O15" s="125"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="113"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="87"/>
       <c r="B16" s="81"/>
       <c r="C16" s="88"/>
@@ -5559,16 +5554,16 @@
       <c r="E16" s="52"/>
       <c r="F16" s="67"/>
       <c r="G16" s="90"/>
-      <c r="H16" s="107"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="109"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87"/>
       <c r="B17" s="81"/>
       <c r="C17" s="88"/>
@@ -5576,16 +5571,16 @@
       <c r="E17" s="52"/>
       <c r="F17" s="67"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="121"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="106"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="87"/>
       <c r="B18" s="81"/>
       <c r="C18" s="88"/>
@@ -5593,16 +5588,16 @@
       <c r="E18" s="52"/>
       <c r="F18" s="67"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="119"/>
-      <c r="N18" s="119"/>
-      <c r="O18" s="124"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="107"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88"/>
@@ -5610,16 +5605,16 @@
       <c r="E19" s="52"/>
       <c r="F19" s="67"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="121"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="106"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="112"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87"/>
       <c r="B20" s="81"/>
       <c r="C20" s="88"/>
@@ -5627,16 +5622,16 @@
       <c r="E20" s="52"/>
       <c r="F20" s="67"/>
       <c r="G20" s="90"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="121"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="106"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="112"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87"/>
       <c r="B21" s="81"/>
       <c r="C21" s="51"/>
@@ -5644,16 +5639,16 @@
       <c r="E21" s="52"/>
       <c r="F21" s="67"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="121"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="106"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="112"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="87"/>
       <c r="B22" s="81"/>
       <c r="C22" s="51"/>
@@ -5661,16 +5656,16 @@
       <c r="E22" s="52"/>
       <c r="F22" s="67"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="121"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="106"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="112"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="87"/>
       <c r="B23" s="81"/>
       <c r="C23" s="51"/>
@@ -5678,16 +5673,16 @@
       <c r="E23" s="52"/>
       <c r="F23" s="67"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="108"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="108"/>
-      <c r="N23" s="108"/>
-      <c r="O23" s="109"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
       <c r="B24" s="81"/>
       <c r="C24" s="51"/>
@@ -5695,16 +5690,16 @@
       <c r="E24" s="52"/>
       <c r="F24" s="67"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
-      <c r="M24" s="108"/>
-      <c r="N24" s="108"/>
-      <c r="O24" s="109"/>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="110"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
       <c r="B25" s="81"/>
       <c r="C25" s="51"/>
@@ -5712,16 +5707,16 @@
       <c r="E25" s="52"/>
       <c r="F25" s="67"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="107"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="109"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="108"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="110"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
       <c r="B26" s="81"/>
       <c r="C26" s="51"/>
@@ -5729,16 +5724,16 @@
       <c r="E26" s="52"/>
       <c r="F26" s="67"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="108"/>
-      <c r="K26" s="108"/>
-      <c r="L26" s="108"/>
-      <c r="M26" s="108"/>
-      <c r="N26" s="108"/>
-      <c r="O26" s="109"/>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
       <c r="B27" s="81"/>
       <c r="C27" s="51"/>
@@ -5746,16 +5741,16 @@
       <c r="E27" s="52"/>
       <c r="F27" s="67"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="108"/>
-      <c r="J27" s="108"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="108"/>
-      <c r="M27" s="108"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="109"/>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="108"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="110"/>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
       <c r="B28" s="81"/>
       <c r="C28" s="51"/>
@@ -5763,16 +5758,16 @@
       <c r="E28" s="52"/>
       <c r="F28" s="67"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="120"/>
-      <c r="M28" s="120"/>
-      <c r="N28" s="120"/>
-      <c r="O28" s="121"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="106"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="112"/>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
       <c r="B29" s="81"/>
       <c r="C29" s="51"/>
@@ -5780,16 +5775,16 @@
       <c r="E29" s="52"/>
       <c r="F29" s="67"/>
       <c r="G29" s="53"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="108"/>
-      <c r="K29" s="108"/>
-      <c r="L29" s="108"/>
-      <c r="M29" s="108"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="109"/>
-    </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H29" s="108"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="110"/>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
       <c r="B30" s="81"/>
       <c r="C30" s="51"/>
@@ -5797,16 +5792,16 @@
       <c r="E30" s="52"/>
       <c r="F30" s="67"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="108"/>
-      <c r="K30" s="108"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="108"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="109"/>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="110"/>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
       <c r="B31" s="81"/>
       <c r="C31" s="51"/>
@@ -5814,16 +5809,16 @@
       <c r="E31" s="52"/>
       <c r="F31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="108"/>
-      <c r="K31" s="108"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="108"/>
-      <c r="N31" s="108"/>
-      <c r="O31" s="109"/>
-    </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="108"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
       <c r="B32" s="81"/>
       <c r="C32" s="51"/>
@@ -5831,16 +5826,16 @@
       <c r="E32" s="52"/>
       <c r="F32" s="67"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="124"/>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="107"/>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
       <c r="B33" s="81"/>
       <c r="C33" s="51"/>
@@ -5848,16 +5843,16 @@
       <c r="E33" s="52"/>
       <c r="F33" s="67"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="124"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="107"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
       <c r="B34" s="81"/>
       <c r="C34" s="51"/>
@@ -5865,16 +5860,16 @@
       <c r="E34" s="52"/>
       <c r="F34" s="67"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="124"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="107"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
       <c r="B35" s="81"/>
       <c r="C35" s="51"/>
@@ -5882,16 +5877,16 @@
       <c r="E35" s="52"/>
       <c r="F35" s="67"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="119"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="119"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="124"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="107"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
       <c r="B36" s="81"/>
       <c r="C36" s="51"/>
@@ -5899,16 +5894,16 @@
       <c r="E36" s="52"/>
       <c r="F36" s="67"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120"/>
-      <c r="N36" s="120"/>
-      <c r="O36" s="121"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H36" s="106"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="112"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
       <c r="B37" s="81"/>
       <c r="C37" s="51"/>
@@ -5916,16 +5911,16 @@
       <c r="E37" s="52"/>
       <c r="F37" s="67"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="119"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="120"/>
-      <c r="M37" s="120"/>
-      <c r="N37" s="120"/>
-      <c r="O37" s="121"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="106"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="112"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
       <c r="B38" s="81"/>
       <c r="C38" s="56"/>
@@ -5933,19 +5928,19 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="122"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="122"/>
-      <c r="O38" s="123"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="115"/>
+    </row>
+    <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="69"/>
       <c r="C40" s="5"/>
@@ -5962,16 +5957,34 @@
       <c r="N40" s="5"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="H44" s="68" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:O35"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H32:O32"/>
     <mergeCell ref="H33:O33"/>
@@ -5988,24 +6001,6 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.52" right="0.21" top="0.81" bottom="0.27" header="0.36" footer="0.2"/>
@@ -6022,31 +6017,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -6065,8 +6060,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -6083,12 +6078,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -6104,98 +6099,98 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="130"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
         <v>64</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E16)</f>
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E6" s="20">
         <v>100000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>15600000</v>
+        <v>15100000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="133"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="141" t="s">
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="140" t="s">
+      <c r="E8" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -6211,12 +6206,12 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="139"/>
+      <c r="O9" s="138"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -6227,7 +6222,7 @@
         <v>65</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="101">
         <v>30</v>
@@ -6244,7 +6239,7 @@
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
       <c r="O10" s="72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="71" t="str">
@@ -6256,7 +6251,7 @@
         <v>/* 名前   日本語なら10文字 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -6267,7 +6262,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="102">
         <v>30</v>
@@ -6296,7 +6291,7 @@
         <v>/* ユーザーパスワード    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -6307,7 +6302,7 @@
         <v>67</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="102">
         <v>30</v>
@@ -6324,7 +6319,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>29</v>
@@ -6338,7 +6333,7 @@
         <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -6349,7 +6344,7 @@
         <v>68</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="102">
         <v>40</v>
@@ -6378,7 +6373,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -6389,10 +6384,10 @@
         <v>69</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="102">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6400,27 +6395,29 @@
         <v>42</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
-      <c r="O14" s="46"/>
+      <c r="O14" s="46" t="s">
+        <v>147</v>
+      </c>
       <c r="P14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID INT(20)</v>
+        <v>USER_ID INT(16)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f>"/* " &amp; B14 &amp; "   " &amp; SUBSTITUTE(O14,CHAR(10)," ") &amp; " */"</f>
-        <v>/* ユーザーID    */</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* ユーザーID   ランダムに */</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -6431,10 +6428,10 @@
         <v>70</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24">
@@ -6449,20 +6446,22 @@
       <c r="L15" s="25"/>
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
-      <c r="O15" s="46"/>
+      <c r="O15" s="46" t="s">
+        <v>144</v>
+      </c>
       <c r="P15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ROGIN BOOLEAN(2) DEFAULT ( 0)</v>
+        <v>ROGIN BOOLEAN(1) DEFAULT ( 0)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ログイン    */</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* ログイン   ログイン中→ture　ログアウト→false */</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -6470,10 +6469,10 @@
         <v>63</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" s="102">
         <v>4</v>
@@ -6491,20 +6490,22 @@
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="46"/>
+      <c r="O16" s="46" t="s">
+        <v>145</v>
+      </c>
       <c r="P16" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q16" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ROLR INT(4) DEFAULT ( 0)</v>
+        <v>ROLE INT(4) DEFAULT ( 0)</v>
       </c>
       <c r="R16" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ロール    */</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* ロール   1→会員　2→ホテル　3→管理者　0→ログインしていない */</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
@@ -6522,7 +6523,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
@@ -6540,7 +6541,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -6558,7 +6559,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -6576,7 +6577,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -6594,7 +6595,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -6624,7 +6625,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -6684,7 +6685,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -6714,7 +6715,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -6744,7 +6745,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -6774,7 +6775,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -6864,7 +6865,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -6924,7 +6925,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -6954,7 +6955,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -6984,7 +6985,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -7044,7 +7045,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -7074,7 +7075,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -7134,7 +7135,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -7164,7 +7165,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -7194,7 +7195,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -7207,7 +7208,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -7220,7 +7221,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -7241,37 +7242,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -7312,31 +7313,31 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.90625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.453125" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.453125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -7355,8 +7356,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7373,12 +7374,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -7394,22 +7395,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="144"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145" t="s">
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="143"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="144" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="91" t="s">
         <v>51</v>
       </c>
@@ -7427,65 +7428,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="148"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="141" t="s">
+      <c r="H6" s="146"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="147"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="149" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="148" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -7501,23 +7502,23 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="150"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="31">
         <v>20</v>
@@ -7546,7 +7547,7 @@
         <v>/* 予約情報ID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -7557,7 +7558,7 @@
         <v>69</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="24">
         <v>20</v>
@@ -7574,7 +7575,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
       <c r="O11" s="59" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>29</v>
@@ -7588,18 +7589,18 @@
         <v>/* ユーザーID   予約した人のID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>3</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="24">
         <v>20</v>
@@ -7616,7 +7617,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="60" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>29</v>
@@ -7630,18 +7631,18 @@
         <v>/* プランID   予約したプランのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="24">
         <v>3</v>
@@ -7670,18 +7671,18 @@
         <v>/* 予約日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>5</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E14" s="24">
         <v>3</v>
@@ -7710,18 +7711,18 @@
         <v>/* 宿泊開始日    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>6</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C15" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>86</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>87</v>
       </c>
       <c r="E15" s="24">
         <v>3</v>
@@ -7750,7 +7751,7 @@
         <v>/* 宿泊終了日    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -7780,7 +7781,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -7810,7 +7811,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -7870,7 +7871,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -7930,7 +7931,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -7960,7 +7961,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -7990,7 +7991,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -8020,7 +8021,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -8080,7 +8081,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -8110,7 +8111,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -8140,7 +8141,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -8170,7 +8171,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -8202,7 +8203,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -8234,7 +8235,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -8266,7 +8267,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -8298,7 +8299,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -8362,7 +8363,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -8394,7 +8395,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -8426,7 +8427,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -8458,7 +8459,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -8490,7 +8491,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -8586,7 +8587,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -8618,7 +8619,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -8648,19 +8649,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8681,25 +8682,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -8740,31 +8741,31 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="120" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:E25"/>
+    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.90625" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.453125" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.453125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -8783,8 +8784,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8801,12 +8802,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -8822,24 +8823,24 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="136" t="s">
+      <c r="H5" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="137"/>
-      <c r="J5" s="137"/>
-      <c r="K5" s="137"/>
-      <c r="L5" s="137"/>
-      <c r="M5" s="137"/>
-      <c r="N5" s="137"/>
-      <c r="O5" s="144"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="145" t="s">
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
+      <c r="O5" s="143"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="145"/>
       <c r="C6" s="91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E15)</f>
@@ -8855,65 +8856,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="147"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
-      <c r="N6" s="130"/>
-      <c r="O6" s="148"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="141" t="s">
+      <c r="H6" s="146"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="147"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="140" t="s">
+      <c r="E8" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="140" t="s">
+      <c r="F8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="133" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="149" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="148" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -8929,23 +8930,23 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="150"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
       <c r="B10" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>94</v>
-      </c>
       <c r="D10" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E10" s="31">
         <v>20</v>
@@ -8974,18 +8975,18 @@
         <v>/* 口コミID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="24">
         <v>20</v>
@@ -9002,7 +9003,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
       <c r="O11" s="59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>29</v>
@@ -9016,18 +9017,18 @@
         <v>/* ユーザーID   記入したユーザーのID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>3</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E12" s="24">
         <v>20</v>
@@ -9044,7 +9045,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>29</v>
@@ -9058,18 +9059,18 @@
         <v>/* ホテルID   記入されたホテルのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" s="24">
         <v>3</v>
@@ -9098,18 +9099,18 @@
         <v>/* 口コミ日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
@@ -9126,7 +9127,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
       <c r="O14" s="59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>29</v>
@@ -9140,18 +9141,18 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>6</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E15" s="24">
         <v>1200</v>
@@ -9168,7 +9169,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
       <c r="O15" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>29</v>
@@ -9182,7 +9183,7 @@
         <v>/* 口コミ内容   1～5の五段階評価 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -9242,7 +9243,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -9272,7 +9273,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -9332,7 +9333,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -9392,7 +9393,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -9482,7 +9483,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -9542,7 +9543,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -9572,7 +9573,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -9602,7 +9603,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -9634,7 +9635,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -9666,7 +9667,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -9698,7 +9699,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -9762,7 +9763,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -9890,7 +9891,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -9922,7 +9923,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -9986,7 +9987,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -10018,7 +10019,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -10080,19 +10081,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -10113,25 +10114,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -10172,31 +10173,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -10215,8 +10216,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -10233,12 +10234,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -10254,98 +10255,98 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="130"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>332</v>
+        <v>162</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>3320000</v>
+        <v>1620000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="133"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="141" t="s">
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="140" t="s">
+      <c r="E8" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -10361,23 +10362,23 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="139"/>
+      <c r="O9" s="138"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="101">
         <v>20</v>
@@ -10406,7 +10407,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -10417,10 +10418,10 @@
         <v>68</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E11" s="102">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -10439,14 +10440,14 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ADDRESS VARCHAR(100)</v>
+        <v>ADDRESS CHAR(60)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -10454,13 +10455,13 @@
         <v>59</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E12" s="102">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -10474,32 +10475,32 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>EMAIL VARCHAR(80)</v>
+        <v>EMAIL CHAR(30)</v>
       </c>
       <c r="R12" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C13" s="24" t="s">
-        <v>115</v>
-      </c>
       <c r="D13" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="102">
         <v>12</v>
@@ -10516,7 +10517,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
       <c r="O13" s="46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>29</v>
@@ -10530,21 +10531,21 @@
         <v>/* 電話番号   08054932003みたいな感じ */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>118</v>
-      </c>
       <c r="D14" s="32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E14" s="102">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -10563,28 +10564,28 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>BUILDING_NAME VARCHAR(60)</v>
+        <v>BUILDING_NAME CHAR(20)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* 建物名    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>120</v>
-      </c>
       <c r="D15" s="32" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E15" s="102">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -10603,14 +10604,14 @@
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>HOTEL_NAME VARCHAR(60)</v>
+        <v>HOTEL_NAME CHAR(20)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* ホテル名    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
@@ -10658,7 +10659,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
@@ -10676,7 +10677,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -10694,7 +10695,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -10712,7 +10713,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -10730,7 +10731,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -10760,7 +10761,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -10790,7 +10791,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -10880,7 +10881,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -10910,7 +10911,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -10940,7 +10941,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -10970,7 +10971,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -11000,7 +11001,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -11030,7 +11031,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -11090,7 +11091,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -11120,7 +11121,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -11150,7 +11151,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -11180,7 +11181,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -11210,7 +11211,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -11270,7 +11271,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -11300,7 +11301,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -11330,7 +11331,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -11343,7 +11344,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -11356,7 +11357,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -11377,37 +11378,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -11448,31 +11449,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -11491,8 +11492,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -11509,12 +11510,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -11530,98 +11531,98 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="130"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>703</v>
+        <v>103</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>7030000</v>
+        <v>1030000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="133"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="141" t="s">
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="140" t="s">
+      <c r="E8" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -11637,23 +11638,23 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="139"/>
+      <c r="O9" s="138"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="101">
         <v>20</v>
@@ -11682,18 +11683,18 @@
         <v>/* プランID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="24" t="s">
-        <v>122</v>
-      </c>
       <c r="D11" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" s="102">
         <v>30</v>
@@ -11722,18 +11723,18 @@
         <v>/* プラン名    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>3</v>
       </c>
       <c r="B12" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="24" t="s">
-        <v>124</v>
-      </c>
       <c r="D12" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="102">
         <v>3</v>
@@ -11762,18 +11763,18 @@
         <v>/* 最大人数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="102">
         <v>20</v>
@@ -11802,18 +11803,18 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="24" t="s">
-        <v>126</v>
-      </c>
       <c r="D14" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E14" s="102">
         <v>10</v>
@@ -11835,25 +11836,25 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>CHARGE INT(10)</v>
+        <v>CHARGE CHAR(10)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* 料金    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>128</v>
-      </c>
       <c r="D15" s="32" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="102">
         <v>20</v>
@@ -11882,27 +11883,15 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
-        <v>7</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="102">
-        <v>600</v>
-      </c>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -11910,22 +11899,10 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
       <c r="O16" s="46"/>
-      <c r="P16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>PLAN_EXPLAIN VARCHAR(600)</v>
-      </c>
-      <c r="R16" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>/* プラン説明    */</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
-        <v>8</v>
-      </c>
+      <c r="P16" s="6"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
       <c r="D17" s="32"/>
@@ -11942,10 +11919,8 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
-        <v>9</v>
-      </c>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
       <c r="D18" s="32"/>
@@ -11962,7 +11937,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -11980,7 +11955,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -11998,7 +11973,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -12016,10 +11991,8 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
-        <v>13</v>
-      </c>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A22" s="15"/>
       <c r="B22" s="40"/>
       <c r="C22" s="24"/>
       <c r="D22" s="25"/>
@@ -12046,10 +12019,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A23" s="15">
-        <v>14</v>
-      </c>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A23" s="15"/>
       <c r="B23" s="40"/>
       <c r="C23" s="24"/>
       <c r="D23" s="25"/>
@@ -12076,10 +12047,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A24" s="15">
-        <v>15</v>
-      </c>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A24" s="15"/>
       <c r="B24" s="40"/>
       <c r="C24" s="24"/>
       <c r="D24" s="25"/>
@@ -12106,10 +12075,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A25" s="15">
-        <v>16</v>
-      </c>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A25" s="15"/>
       <c r="B25" s="40"/>
       <c r="C25" s="24"/>
       <c r="D25" s="25"/>
@@ -12136,10 +12103,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A26" s="15">
-        <v>17</v>
-      </c>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A26" s="15"/>
       <c r="B26" s="40"/>
       <c r="C26" s="24"/>
       <c r="D26" s="25"/>
@@ -12166,10 +12131,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A27" s="15">
-        <v>18</v>
-      </c>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A27" s="15"/>
       <c r="B27" s="40"/>
       <c r="C27" s="24"/>
       <c r="D27" s="25"/>
@@ -12196,10 +12159,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A28" s="15">
-        <v>19</v>
-      </c>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A28" s="15"/>
       <c r="B28" s="40"/>
       <c r="C28" s="24"/>
       <c r="D28" s="25"/>
@@ -12226,10 +12187,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A29" s="15">
-        <v>20</v>
-      </c>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A29" s="15"/>
       <c r="B29" s="39"/>
       <c r="C29" s="29"/>
       <c r="D29" s="28"/>
@@ -12256,10 +12215,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A30" s="15">
-        <v>21</v>
-      </c>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A30" s="15"/>
       <c r="B30" s="39"/>
       <c r="C30" s="29"/>
       <c r="D30" s="28"/>
@@ -12286,10 +12243,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A31" s="15">
-        <v>22</v>
-      </c>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="15"/>
       <c r="B31" s="39"/>
       <c r="C31" s="29"/>
       <c r="D31" s="28"/>
@@ -12316,10 +12271,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A32" s="15">
-        <v>23</v>
-      </c>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="15"/>
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
       <c r="D32" s="25"/>
@@ -12346,10 +12299,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A33" s="15">
-        <v>24</v>
-      </c>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
       <c r="B33" s="40"/>
       <c r="C33" s="24"/>
       <c r="D33" s="25"/>
@@ -12376,10 +12327,8 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A34" s="15">
-        <v>25</v>
-      </c>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
       <c r="B34" s="40"/>
       <c r="C34" s="24"/>
       <c r="D34" s="25"/>
@@ -12406,10 +12355,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A35" s="15">
-        <v>26</v>
-      </c>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
       <c r="B35" s="40"/>
       <c r="C35" s="24"/>
       <c r="D35" s="25"/>
@@ -12436,10 +12383,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A36" s="15">
-        <v>27</v>
-      </c>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
       <c r="B36" s="40"/>
       <c r="C36" s="24"/>
       <c r="D36" s="25"/>
@@ -12466,10 +12411,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A37" s="15">
-        <v>28</v>
-      </c>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="15"/>
       <c r="B37" s="40"/>
       <c r="C37" s="24"/>
       <c r="D37" s="25"/>
@@ -12496,10 +12439,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A38" s="15">
-        <v>29</v>
-      </c>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="15"/>
       <c r="B38" s="40"/>
       <c r="C38" s="24"/>
       <c r="D38" s="25"/>
@@ -12526,10 +12467,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A39" s="15">
-        <v>30</v>
-      </c>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="15"/>
       <c r="B39" s="40"/>
       <c r="C39" s="24"/>
       <c r="D39" s="25"/>
@@ -12556,10 +12495,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A40" s="15">
-        <v>31</v>
-      </c>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="15"/>
       <c r="B40" s="40"/>
       <c r="C40" s="24"/>
       <c r="D40" s="25"/>
@@ -12586,10 +12523,8 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16">
-        <v>32</v>
-      </c>
+    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
       <c r="B41" s="41"/>
       <c r="C41" s="14"/>
       <c r="D41" s="19"/>
@@ -12616,7 +12551,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -12629,7 +12564,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -12642,7 +12577,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -12663,37 +12598,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -12731,31 +12666,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -12774,8 +12709,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -12792,12 +12727,12 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="136"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -12813,98 +12748,98 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="126" t="s">
+      <c r="H5" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="128"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="129" t="s">
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="127"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="130"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>628</v>
+        <v>31</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>6280000</v>
+        <v>310000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="131"/>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
-      <c r="K6" s="132"/>
-      <c r="L6" s="132"/>
-      <c r="M6" s="132"/>
-      <c r="N6" s="132"/>
-      <c r="O6" s="133"/>
-    </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="141" t="s">
+      <c r="H6" s="130"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
+      <c r="K6" s="131"/>
+      <c r="L6" s="131"/>
+      <c r="M6" s="131"/>
+      <c r="N6" s="131"/>
+      <c r="O6" s="132"/>
+    </row>
+    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="140" t="s">
+      <c r="C8" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="140" t="s">
+      <c r="D8" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="140" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="140" t="s">
+      <c r="E8" s="139" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="140" t="s">
+      <c r="G8" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="140" t="s">
+      <c r="H8" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="134" t="s">
+      <c r="I8" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="136" t="s">
+      <c r="J8" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="137"/>
-      <c r="L8" s="137"/>
-      <c r="M8" s="137"/>
-      <c r="N8" s="137"/>
-      <c r="O8" s="138" t="s">
+      <c r="K8" s="136"/>
+      <c r="L8" s="136"/>
+      <c r="M8" s="136"/>
+      <c r="N8" s="136"/>
+      <c r="O8" s="137" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="142"/>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="135"/>
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -12920,23 +12855,23 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="139"/>
+      <c r="O9" s="138"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
       <c r="B10" s="75" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>128</v>
-      </c>
       <c r="D10" s="100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="101">
         <v>20</v>
@@ -12965,21 +12900,21 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="C11" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="D11" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="32" t="s">
-        <v>74</v>
-      </c>
       <c r="E11" s="102">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -12998,14 +12933,14 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>BED_NUMBER INT(2)</v>
+        <v>ROOM_WIDTH FLOAT(4)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
-        <v>/* ベッド数    */</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* 面積    */</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -13019,7 +12954,7 @@
         <v>73</v>
       </c>
       <c r="E12" s="102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -13038,14 +12973,14 @@
       </c>
       <c r="Q12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>BATHROOM BOOLEAN(1)</v>
+        <v>BED_NUMBER INT(2)</v>
       </c>
       <c r="R12" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* バスルーム    */</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* ベッド数    */</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -13056,7 +12991,7 @@
         <v>134</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E13" s="102">
         <v>1</v>
@@ -13078,14 +13013,14 @@
       </c>
       <c r="Q13" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>DRYER BOOLEAN(1)</v>
+        <v>BATHROOM BOOLEAN(1)</v>
       </c>
       <c r="R13" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ドライヤー    */</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* バスルーム    */</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -13096,7 +13031,7 @@
         <v>136</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" s="102">
         <v>1</v>
@@ -13118,14 +13053,14 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>TV BOOLEAN(1)</v>
+        <v>DRYER BOOLEAN(1)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* テレビ    */</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* ドライヤー    */</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -13136,7 +13071,7 @@
         <v>138</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" s="102">
         <v>1</v>
@@ -13158,14 +13093,14 @@
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>WI_FI BOOLEAN(1)</v>
+        <v>TV BOOLEAN(1)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* WIFI    */</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+        <v>/* テレビ    */</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -13176,7 +13111,7 @@
         <v>140</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E16" s="102">
         <v>1</v>
@@ -13198,25 +13133,25 @@
       </c>
       <c r="Q16" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>PET BOOLEAN(1)</v>
+        <v>WI_FI BOOLEAN(1)</v>
       </c>
       <c r="R16" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ペット    */</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+        <v>/* WIFI    */</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>8</v>
       </c>
       <c r="B17" s="40" t="s">
+        <v>141</v>
+      </c>
+      <c r="C17" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="103" t="s">
-        <v>143</v>
-      </c>
       <c r="D17" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E17" s="102">
         <v>1</v>
@@ -13236,34 +13171,24 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>FREADGE BOOLEAN(1)</v>
+        <v>PET BOOLEAN(1)</v>
       </c>
       <c r="R17" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* 冷蔵庫    */</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
+        <v>/* ペット    */</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>9</v>
       </c>
-      <c r="B18" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C18" s="103" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="102">
-        <v>600</v>
-      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="25" t="s">
-        <v>25</v>
-      </c>
+      <c r="H18" s="25"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -13272,16 +13197,8 @@
       <c r="N18" s="26"/>
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
-      <c r="Q18" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>ROOM_EXPLAIN VARCHAR(600)</v>
-      </c>
-      <c r="R18" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>/* 部屋説明    */</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -13301,7 +13218,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -13321,7 +13238,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -13341,7 +13258,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -13371,7 +13288,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -13401,7 +13318,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -13431,7 +13348,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -13461,7 +13378,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -13491,7 +13408,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -13521,7 +13438,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -13551,7 +13468,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -13581,7 +13498,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -13611,7 +13528,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -13641,7 +13558,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -13671,7 +13588,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -13701,7 +13618,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -13731,7 +13648,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -13761,7 +13678,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -13791,7 +13708,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -13821,7 +13738,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -13851,7 +13768,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -13881,7 +13798,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -13911,7 +13828,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -13941,7 +13858,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -13954,7 +13871,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -13967,7 +13884,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -13988,37 +13905,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k024c6002\グループ演習\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3F9BF-AAA6-49FC-A4BF-1CBE49A2CDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46584159-2B25-4F02-8DD7-C7002B1CF0B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="757" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="2565" windowWidth="21600" windowHeight="11295" tabRatio="757" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="153">
   <si>
     <t>備考</t>
   </si>
@@ -702,21 +702,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>面積</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ROOM_WIDTH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FLOAT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ベッド数</t>
     <rPh sb="3" eb="4">
       <t>スウ</t>
@@ -794,6 +779,53 @@
   </si>
   <si>
     <t>ランダムに</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋説明</t>
+    <rPh sb="0" eb="4">
+      <t>ヘヤセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROOM_EXPLAIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FRIDGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラン説明</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PLAN_EXPLAIN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋名前</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ROOM_NAME</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1627,25 +1659,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1655,6 +1668,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1667,6 +1683,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5171,20 +5203,20 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.453125" style="68" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="68" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="68" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="68" customWidth="1"/>
     <col min="6" max="6" width="11" style="68" customWidth="1"/>
     <col min="7" max="7" width="9" style="68"/>
-    <col min="8" max="15" width="7.08984375" style="68" customWidth="1"/>
+    <col min="8" max="15" width="7.125" style="68" customWidth="1"/>
     <col min="16" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -5203,11 +5235,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="44"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="64"/>
       <c r="C3" s="3"/>
@@ -5224,8 +5256,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:20" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
@@ -5247,18 +5279,18 @@
       <c r="G5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="105"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
       <c r="B6" s="86" t="s">
         <v>34</v>
@@ -5268,16 +5300,16 @@
       <c r="E6" s="52"/>
       <c r="F6" s="83"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
-    </row>
-    <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+    </row>
+    <row r="7" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
@@ -5301,16 +5333,16 @@
       <c r="G7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="121"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
@@ -5334,16 +5366,16 @@
       <c r="G8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
-    </row>
-    <row r="9" spans="1:20" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
         <v>38</v>
       </c>
@@ -5367,16 +5399,16 @@
       <c r="G9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88" t="s">
         <v>39</v>
       </c>
@@ -5388,33 +5420,33 @@
       </c>
       <c r="D10" s="52">
         <f>SUM(ホテル!E10:E121)</f>
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="E10" s="52">
         <v>10000</v>
       </c>
       <c r="F10" s="52">
         <f t="shared" si="0"/>
-        <v>1620000</v>
+        <v>3320000</v>
       </c>
       <c r="G10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87" t="s">
         <v>40</v>
       </c>
@@ -5426,33 +5458,33 @@
       </c>
       <c r="D11" s="97">
         <f>SUM(プラン!E10:E21)</f>
-        <v>103</v>
+        <v>1033</v>
       </c>
       <c r="E11" s="67">
         <v>10000</v>
       </c>
       <c r="F11" s="84">
         <f t="shared" si="0"/>
-        <v>1030000</v>
+        <v>10330000</v>
       </c>
       <c r="G11" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="117"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="87" t="s">
         <v>41</v>
       </c>
@@ -5464,33 +5496,33 @@
       </c>
       <c r="D12" s="67">
         <f>SUM(部屋!E10:E21)</f>
-        <v>31</v>
+        <v>668</v>
       </c>
       <c r="E12" s="67">
         <v>10000</v>
       </c>
       <c r="F12" s="67">
         <f t="shared" si="0"/>
-        <v>310000</v>
+        <v>6680000</v>
       </c>
       <c r="G12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="110"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
       <c r="B13" s="79"/>
       <c r="C13" s="89"/>
@@ -5498,21 +5530,21 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="98"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="117"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54"/>
       <c r="B14" s="79"/>
       <c r="C14" s="51"/>
@@ -5520,16 +5552,16 @@
       <c r="E14" s="52"/>
       <c r="F14" s="67"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="110"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="108"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
       <c r="B15" s="86"/>
       <c r="C15" s="51"/>
@@ -5537,16 +5569,16 @@
       <c r="E15" s="52"/>
       <c r="F15" s="67"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="113"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="124"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
       <c r="B16" s="81"/>
       <c r="C16" s="88"/>
@@ -5554,16 +5586,16 @@
       <c r="E16" s="52"/>
       <c r="F16" s="67"/>
       <c r="G16" s="90"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="108"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
       <c r="B17" s="81"/>
       <c r="C17" s="88"/>
@@ -5571,16 +5603,16 @@
       <c r="E17" s="52"/>
       <c r="F17" s="67"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
       <c r="B18" s="81"/>
       <c r="C18" s="88"/>
@@ -5588,16 +5620,16 @@
       <c r="E18" s="52"/>
       <c r="F18" s="67"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="123"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88"/>
@@ -5605,16 +5637,16 @@
       <c r="E19" s="52"/>
       <c r="F19" s="67"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="112"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
       <c r="B20" s="81"/>
       <c r="C20" s="88"/>
@@ -5622,16 +5654,16 @@
       <c r="E20" s="52"/>
       <c r="F20" s="67"/>
       <c r="G20" s="90"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="112"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
       <c r="B21" s="81"/>
       <c r="C21" s="51"/>
@@ -5639,16 +5671,16 @@
       <c r="E21" s="52"/>
       <c r="F21" s="67"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="112"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="87"/>
       <c r="B22" s="81"/>
       <c r="C22" s="51"/>
@@ -5656,16 +5688,16 @@
       <c r="E22" s="52"/>
       <c r="F22" s="67"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="87"/>
       <c r="B23" s="81"/>
       <c r="C23" s="51"/>
@@ -5673,16 +5705,16 @@
       <c r="E23" s="52"/>
       <c r="F23" s="67"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="108"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54"/>
       <c r="B24" s="81"/>
       <c r="C24" s="51"/>
@@ -5690,16 +5722,16 @@
       <c r="E24" s="52"/>
       <c r="F24" s="67"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="110"/>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="108"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="54"/>
       <c r="B25" s="81"/>
       <c r="C25" s="51"/>
@@ -5707,16 +5739,16 @@
       <c r="E25" s="52"/>
       <c r="F25" s="67"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="110"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54"/>
       <c r="B26" s="81"/>
       <c r="C26" s="51"/>
@@ -5724,16 +5756,16 @@
       <c r="E26" s="52"/>
       <c r="F26" s="67"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="108"/>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54"/>
       <c r="B27" s="81"/>
       <c r="C27" s="51"/>
@@ -5741,16 +5773,16 @@
       <c r="E27" s="52"/>
       <c r="F27" s="67"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="108"/>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54"/>
       <c r="B28" s="81"/>
       <c r="C28" s="51"/>
@@ -5758,16 +5790,16 @@
       <c r="E28" s="52"/>
       <c r="F28" s="67"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="112"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="120"/>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54"/>
       <c r="B29" s="81"/>
       <c r="C29" s="51"/>
@@ -5775,16 +5807,16 @@
       <c r="E29" s="52"/>
       <c r="F29" s="67"/>
       <c r="G29" s="53"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
-    </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54"/>
       <c r="B30" s="81"/>
       <c r="C30" s="51"/>
@@ -5792,16 +5824,16 @@
       <c r="E30" s="52"/>
       <c r="F30" s="67"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="110"/>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
       <c r="B31" s="81"/>
       <c r="C31" s="51"/>
@@ -5809,16 +5841,16 @@
       <c r="E31" s="52"/>
       <c r="F31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="110"/>
-    </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="108"/>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54"/>
       <c r="B32" s="81"/>
       <c r="C32" s="51"/>
@@ -5826,16 +5858,16 @@
       <c r="E32" s="52"/>
       <c r="F32" s="67"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="123"/>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="81"/>
       <c r="C33" s="51"/>
@@ -5843,16 +5875,16 @@
       <c r="E33" s="52"/>
       <c r="F33" s="67"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="107"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="123"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="81"/>
       <c r="C34" s="51"/>
@@ -5860,16 +5892,16 @@
       <c r="E34" s="52"/>
       <c r="F34" s="67"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="107"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="123"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="81"/>
       <c r="C35" s="51"/>
@@ -5877,16 +5909,16 @@
       <c r="E35" s="52"/>
       <c r="F35" s="67"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="107"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="123"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="81"/>
       <c r="C36" s="51"/>
@@ -5894,16 +5926,16 @@
       <c r="E36" s="52"/>
       <c r="F36" s="67"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="112"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H36" s="118"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="120"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="81"/>
       <c r="C37" s="51"/>
@@ -5911,16 +5943,16 @@
       <c r="E37" s="52"/>
       <c r="F37" s="67"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="112"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="118"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="120"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55"/>
       <c r="B38" s="81"/>
       <c r="C38" s="56"/>
@@ -5928,19 +5960,19 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="115"/>
-    </row>
-    <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="122"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="69"/>
       <c r="C40" s="5"/>
@@ -5957,34 +5989,16 @@
       <c r="N40" s="5"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H44" s="68" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H32:O32"/>
     <mergeCell ref="H33:O33"/>
@@ -6001,6 +6015,24 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.52" right="0.21" top="0.81" bottom="0.27" header="0.36" footer="0.2"/>
@@ -6017,31 +6049,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="G6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -6060,8 +6092,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -6078,8 +6110,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -6110,7 +6142,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>45</v>
       </c>
@@ -6141,8 +6173,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -6181,7 +6213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -6211,7 +6243,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -6251,7 +6283,7 @@
         <v>/* 名前   日本語なら10文字 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -6291,7 +6323,7 @@
         <v>/* ユーザーパスワード    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -6319,7 +6351,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>29</v>
@@ -6333,7 +6365,7 @@
         <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -6373,7 +6405,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -6403,7 +6435,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
       <c r="O14" s="46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>29</v>
@@ -6417,7 +6449,7 @@
         <v>/* ユーザーID   ランダムに */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -6447,7 +6479,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
       <c r="O15" s="46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>29</v>
@@ -6461,7 +6493,7 @@
         <v>/* ログイン   ログイン中→ture　ログアウト→false */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -6469,7 +6501,7 @@
         <v>63</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>73</v>
@@ -6491,7 +6523,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
       <c r="O16" s="46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P16" s="6" t="s">
         <v>29</v>
@@ -6505,7 +6537,7 @@
         <v>/* ロール   1→会員　2→ホテル　3→管理者　0→ログインしていない */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
@@ -6523,7 +6555,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
@@ -6541,7 +6573,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -6559,7 +6591,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -6577,7 +6609,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -6595,7 +6627,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -6625,7 +6657,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -6655,7 +6687,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -6685,7 +6717,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -6715,7 +6747,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -6745,7 +6777,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -6775,7 +6807,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -6805,7 +6837,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -6835,7 +6867,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -6865,7 +6897,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -6895,7 +6927,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -6925,7 +6957,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -6955,7 +6987,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -6985,7 +7017,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -7015,7 +7047,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -7045,7 +7077,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -7075,7 +7107,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -7105,7 +7137,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -7135,7 +7167,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -7165,7 +7197,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -7195,7 +7227,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -7208,7 +7240,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -7221,7 +7253,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -7242,37 +7274,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -7317,27 +7349,27 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.453125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -7356,8 +7388,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7374,8 +7406,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -7406,7 +7438,7 @@
       <c r="N5" s="136"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>46</v>
       </c>
@@ -7437,8 +7469,8 @@
       <c r="N6" s="129"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -7477,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -7507,7 +7539,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -7547,7 +7579,7 @@
         <v>/* 予約情報ID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -7589,7 +7621,7 @@
         <v>/* ユーザーID   予約した人のID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -7631,7 +7663,7 @@
         <v>/* プランID   予約したプランのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -7671,7 +7703,7 @@
         <v>/* 予約日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -7711,7 +7743,7 @@
         <v>/* 宿泊開始日    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -7751,7 +7783,7 @@
         <v>/* 宿泊終了日    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -7781,7 +7813,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -7811,7 +7843,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -7841,7 +7873,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -7871,7 +7903,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -7901,7 +7933,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -7931,7 +7963,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -7961,7 +7993,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -7991,7 +8023,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -8021,7 +8053,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -8051,7 +8083,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -8081,7 +8113,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -8111,7 +8143,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -8141,7 +8173,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -8171,7 +8203,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -8203,7 +8235,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -8235,7 +8267,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -8267,7 +8299,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -8299,7 +8331,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -8331,7 +8363,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -8363,7 +8395,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -8395,7 +8427,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -8427,7 +8459,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -8459,7 +8491,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -8491,7 +8523,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -8523,7 +8555,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -8555,7 +8587,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -8587,7 +8619,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -8619,7 +8651,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -8649,19 +8681,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8682,25 +8714,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -8745,27 +8777,27 @@
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.453125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.453125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -8784,8 +8816,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -8802,8 +8834,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -8834,7 +8866,7 @@
       <c r="N5" s="136"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>47</v>
       </c>
@@ -8865,8 +8897,8 @@
       <c r="N6" s="129"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -8905,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -8935,7 +8967,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -8975,7 +9007,7 @@
         <v>/* 口コミID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -9017,7 +9049,7 @@
         <v>/* ユーザーID   記入したユーザーのID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -9059,7 +9091,7 @@
         <v>/* ホテルID   記入されたホテルのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -9099,7 +9131,7 @@
         <v>/* 口コミ日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -9141,7 +9173,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -9183,7 +9215,7 @@
         <v>/* 口コミ内容   1～5の五段階評価 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -9213,7 +9245,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -9243,7 +9275,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -9273,7 +9305,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -9303,7 +9335,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -9333,7 +9365,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -9363,7 +9395,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -9393,7 +9425,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -9423,7 +9455,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -9453,7 +9485,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -9483,7 +9515,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -9513,7 +9545,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -9543,7 +9575,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -9573,7 +9605,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -9603,7 +9635,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -9635,7 +9667,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -9667,7 +9699,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -9699,7 +9731,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -9731,7 +9763,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -9763,7 +9795,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -9795,7 +9827,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -9827,7 +9859,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -9859,7 +9891,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -9891,7 +9923,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -9923,7 +9955,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -9955,7 +9987,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -9987,7 +10019,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -10019,7 +10051,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -10051,7 +10083,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -10081,19 +10113,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -10114,25 +10146,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -10173,31 +10205,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -10216,8 +10248,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -10234,8 +10266,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -10266,7 +10298,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>49</v>
       </c>
@@ -10276,14 +10308,14 @@
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>162</v>
+        <v>332</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>1620000</v>
+        <v>3320000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -10297,8 +10329,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -10337,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -10367,7 +10399,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -10407,7 +10439,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -10418,10 +10450,10 @@
         <v>68</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E11" s="102">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -10440,14 +10472,14 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ADDRESS CHAR(60)</v>
+        <v>ADDRESS VARCHAR(90)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -10458,10 +10490,10 @@
         <v>111</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E12" s="102">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -10482,14 +10514,14 @@
       </c>
       <c r="Q12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>EMAIL CHAR(30)</v>
+        <v>EMAIL VARCHAR(90)</v>
       </c>
       <c r="R12" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -10531,7 +10563,7 @@
         <v>/* 電話番号   08054932003みたいな感じ */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -10542,10 +10574,10 @@
         <v>117</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E14" s="102">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -10564,14 +10596,14 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>BUILDING_NAME CHAR(20)</v>
+        <v>BUILDING_NAME VARCHAR(60)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* 建物名    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -10582,10 +10614,10 @@
         <v>119</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E15" s="102">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -10604,14 +10636,14 @@
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>HOTEL_NAME CHAR(20)</v>
+        <v>HOTEL_NAME VARCHAR(60)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* ホテル名    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -10641,7 +10673,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
@@ -10659,7 +10691,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
@@ -10677,7 +10709,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -10695,7 +10727,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -10713,7 +10745,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -10731,7 +10763,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -10761,7 +10793,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -10791,7 +10823,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -10821,7 +10853,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -10851,7 +10883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -10881,7 +10913,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -10911,7 +10943,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -10941,7 +10973,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -10971,7 +11003,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -11001,7 +11033,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -11031,7 +11063,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -11061,7 +11093,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -11091,7 +11123,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -11121,7 +11153,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -11151,7 +11183,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -11181,7 +11213,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -11211,7 +11243,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -11241,7 +11273,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -11271,7 +11303,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -11301,7 +11333,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -11331,7 +11363,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -11344,7 +11376,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -11357,7 +11389,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -11378,37 +11410,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -11449,31 +11481,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -11492,8 +11524,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -11510,8 +11542,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -11542,7 +11574,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>48</v>
       </c>
@@ -11552,14 +11584,14 @@
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>103</v>
+        <v>1033</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>1030000</v>
+        <v>10330000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -11573,8 +11605,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -11613,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -11643,7 +11675,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -11683,7 +11715,7 @@
         <v>/* プランID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -11694,10 +11726,10 @@
         <v>121</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E11" s="102">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -11716,14 +11748,14 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>PLAN_NAME CHAR(30)</v>
+        <v>PLAN_NAME VARCHAR(60)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
         <v>/* プラン名    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -11763,7 +11795,7 @@
         <v>/* 最大人数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -11803,7 +11835,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -11814,7 +11846,7 @@
         <v>125</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E14" s="102">
         <v>10</v>
@@ -11836,14 +11868,14 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>CHARGE CHAR(10)</v>
+        <v>CHARGE INT(10)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* 料金    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -11883,15 +11915,27 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="15"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="102"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>7</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="102">
+        <v>900</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
@@ -11900,8 +11944,16 @@
       <c r="N16" s="26"/>
       <c r="O16" s="46"/>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q16" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>PLAN_EXPLAIN VARCHAR(900)</v>
+      </c>
+      <c r="R16" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>/* プラン説明    */</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="40"/>
       <c r="C17" s="24"/>
@@ -11919,7 +11971,7 @@
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
@@ -11937,7 +11989,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -11955,7 +12007,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -11973,7 +12025,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -11991,7 +12043,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="40"/>
       <c r="C22" s="24"/>
@@ -12019,7 +12071,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="40"/>
       <c r="C23" s="24"/>
@@ -12047,7 +12099,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="40"/>
       <c r="C24" s="24"/>
@@ -12075,7 +12127,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="40"/>
       <c r="C25" s="24"/>
@@ -12103,7 +12155,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="40"/>
       <c r="C26" s="24"/>
@@ -12131,7 +12183,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="40"/>
       <c r="C27" s="24"/>
@@ -12159,7 +12211,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="40"/>
       <c r="C28" s="24"/>
@@ -12187,7 +12239,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="39"/>
       <c r="C29" s="29"/>
@@ -12215,7 +12267,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="39"/>
       <c r="C30" s="29"/>
@@ -12243,7 +12295,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="39"/>
       <c r="C31" s="29"/>
@@ -12271,7 +12323,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
@@ -12299,7 +12351,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="40"/>
       <c r="C33" s="24"/>
@@ -12327,7 +12379,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="40"/>
       <c r="C34" s="24"/>
@@ -12355,7 +12407,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="40"/>
       <c r="C35" s="24"/>
@@ -12383,7 +12435,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="40"/>
       <c r="C36" s="24"/>
@@ -12411,7 +12463,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="40"/>
       <c r="C37" s="24"/>
@@ -12439,7 +12491,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="40"/>
       <c r="C38" s="24"/>
@@ -12467,7 +12519,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="40"/>
       <c r="C39" s="24"/>
@@ -12495,7 +12547,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="40"/>
       <c r="C40" s="24"/>
@@ -12523,7 +12575,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="41"/>
       <c r="C41" s="14"/>
@@ -12551,7 +12603,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -12564,7 +12616,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -12577,7 +12629,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -12598,37 +12650,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -12666,31 +12718,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.08984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.90625" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.90625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.90625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.90625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.90625" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -12709,8 +12761,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -12727,8 +12779,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="142" t="s">
         <v>1</v>
       </c>
@@ -12759,7 +12811,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="127"/>
     </row>
-    <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="128" t="s">
         <v>50</v>
       </c>
@@ -12769,14 +12821,14 @@
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>31</v>
+        <v>668</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>310000</v>
+        <v>6680000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -12790,8 +12842,8 @@
       <c r="N6" s="131"/>
       <c r="O6" s="132"/>
     </row>
-    <row r="7" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="140" t="s">
         <v>2</v>
       </c>
@@ -12830,7 +12882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="141"/>
       <c r="B9" s="134"/>
       <c r="C9" s="134"/>
@@ -12860,7 +12912,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -12900,21 +12952,21 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="E11" s="102">
-        <v>4</v>
+        <v>600</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -12933,22 +12985,22 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ROOM_WIDTH FLOAT(4)</v>
+        <v>ROOM_EXPLAIN VARCHAR(600)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
-        <v>/* 面積    */</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+        <v>/* 部屋説明    */</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>73</v>
@@ -12980,15 +13032,15 @@
         <v>/* ベッド数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>72</v>
@@ -13020,15 +13072,15 @@
         <v>/* バスルーム    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>72</v>
@@ -13060,15 +13112,15 @@
         <v>/* ドライヤー    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>72</v>
@@ -13100,15 +13152,15 @@
         <v>/* テレビ    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D16" s="32" t="s">
         <v>72</v>
@@ -13140,15 +13192,15 @@
         <v>/* WIFI    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D17" s="32" t="s">
         <v>72</v>
@@ -13178,17 +13230,27 @@
         <v>/* ペット    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="102"/>
+      <c r="B18" s="40" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="102">
+        <v>1</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
@@ -13197,18 +13259,36 @@
       <c r="N18" s="26"/>
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q18" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>FRIDGE BOOLEAN(1)</v>
+      </c>
+      <c r="R18" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 冷蔵庫    */</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="102"/>
+      <c r="B19" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="102">
+        <v>40</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
@@ -13217,8 +13297,16 @@
       <c r="N19" s="26"/>
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="Q19" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>ROOM_NAME VARCHAR(40)</v>
+      </c>
+      <c r="R19" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 部屋名前    */</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -13238,7 +13326,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -13258,7 +13346,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -13288,7 +13376,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -13318,7 +13406,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -13348,7 +13436,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -13378,7 +13466,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -13408,7 +13496,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -13438,7 +13526,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -13468,7 +13556,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -13498,7 +13586,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -13528,7 +13616,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -13558,7 +13646,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -13588,7 +13676,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -13618,7 +13706,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -13648,7 +13736,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -13678,7 +13766,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -13708,7 +13796,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -13738,7 +13826,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -13768,7 +13856,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -13798,7 +13886,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -13828,7 +13916,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -13858,7 +13946,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -13871,7 +13959,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -13884,7 +13972,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -13905,37 +13993,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k024c6002\グループ演習\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C3F9BF-AAA6-49FC-A4BF-1CBE49A2CDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CFD75F3-A15D-4B04-876F-E65591B9F07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" tabRatio="757" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="757" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="145">
   <si>
     <t>備考</t>
   </si>
@@ -223,6 +223,22 @@
     </r>
   </si>
   <si>
+    <t>003</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>不</t>
     <rPh sb="0" eb="1">
       <t>フ</t>
@@ -230,29 +246,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>003</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>004</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>005</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>006</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>不</t>
-    <rPh sb="0" eb="1">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>主キー
 △:一意制約</t>
     <phoneticPr fontId="2"/>
@@ -302,10 +295,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>UD_BSER</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>DB_WORD OF MAUTH</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -348,10 +337,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ロール</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -380,10 +365,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ROGIN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>CHAR</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -405,16 +386,6 @@
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>日本語なら10文字</t>
-    <rPh sb="0" eb="3">
-      <t>ニホンゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>モジ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -457,23 +428,6 @@
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>予約した人のID</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>予約したプランのID</t>
-    <rPh sb="0" eb="1">
-      <t>ヨヤク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -562,10 +516,6 @@
   </si>
   <si>
     <t>INT</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VARCHAR</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -611,13 +561,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>○○○○@○○.comのような感じで</t>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>電話番号</t>
     <rPh sb="0" eb="4">
       <t>デンワバンゴウ</t>
@@ -629,13 +572,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>08054932003みたいな感じ</t>
-    <rPh sb="15" eb="16">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>建物名</t>
     <rPh sb="0" eb="3">
       <t>タテモノメイ</t>
@@ -702,18 +638,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>面積</t>
-    <rPh sb="0" eb="2">
-      <t>メンセキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ROOM_WIDTH</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>FLOAT</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -765,17 +690,6 @@
   </si>
   <si>
     <t>PET</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>○○○○@○○.comのような感じで</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ログイン中→ture　ログアウト→false</t>
-    <rPh sb="4" eb="5">
-      <t>チュウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -793,7 +707,96 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ランダムに</t>
+    <t>DB_BSER</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>yyyymm+ユーザーID+連番3桁</t>
+    <rPh sb="14" eb="16">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>連番10桁</t>
+    <rPh sb="0" eb="2">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>県番号(2桁)+連番8</t>
+    <rPh sb="0" eb="3">
+      <t>ケンバンゴウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテルID＋1+連番3桁</t>
+    <rPh sb="8" eb="10">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ホテルID＋2+連番3桁</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本語なら25文字</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UR＋連番８文字</t>
+    <rPh sb="3" eb="5">
+      <t>レンバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイフンは抜く</t>
+    <rPh sb="5" eb="6">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷蔵庫</t>
+    <rPh sb="0" eb="3">
+      <t>レイゾウコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CHER</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1627,25 +1630,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1655,6 +1639,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1667,6 +1654,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5168,7 +5171,7 @@
   <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5247,16 +5250,16 @@
       <c r="G5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="54"/>
@@ -5268,146 +5271,146 @@
       <c r="E6" s="52"/>
       <c r="F6" s="83"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
       <c r="B7" s="81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="D7" s="20">
         <f>SUM(ユーザー情報!E10:E21)</f>
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E7" s="52">
         <v>10000</v>
       </c>
       <c r="F7" s="83">
         <f t="shared" ref="F7:F12" si="0">SUMPRODUCT(D7,E7)</f>
-        <v>1510000</v>
+        <v>1640000</v>
       </c>
       <c r="G7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="121"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
     </row>
     <row r="8" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="67">
         <f>SUM(予約情報!E10:E15)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="67">
         <v>10000</v>
       </c>
       <c r="F8" s="84">
         <f t="shared" si="0"/>
-        <v>690000</v>
+        <v>710000</v>
       </c>
       <c r="G8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
     </row>
     <row r="9" spans="1:20" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="92">
         <f>SUM(口コミ!E10:E15)</f>
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="E9" s="67">
         <v>1000</v>
       </c>
       <c r="F9" s="84">
         <f t="shared" si="0"/>
-        <v>1264000</v>
+        <v>1254000</v>
       </c>
       <c r="G9" s="99" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
+        <v>43</v>
+      </c>
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
     </row>
     <row r="10" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="52">
         <f>SUM(ホテル!E10:E121)</f>
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="E10" s="52">
         <v>10000</v>
       </c>
       <c r="F10" s="52">
         <f t="shared" si="0"/>
-        <v>1620000</v>
+        <v>2220000</v>
       </c>
       <c r="G10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
@@ -5416,13 +5419,13 @@
     </row>
     <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="89" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" s="97">
         <f>SUM(プラン!E10:E21)</f>
@@ -5438,14 +5441,14 @@
       <c r="G11" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="117"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
@@ -5454,36 +5457,36 @@
     </row>
     <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="87" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="89" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="67">
         <f>SUM(部屋!E10:E21)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E12" s="67">
         <v>10000</v>
       </c>
       <c r="F12" s="67">
         <f t="shared" si="0"/>
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="G12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="110"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
@@ -5498,14 +5501,14 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="98"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="117"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
@@ -5520,14 +5523,14 @@
       <c r="E14" s="52"/>
       <c r="F14" s="67"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="110"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="108"/>
     </row>
     <row r="15" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87"/>
@@ -5537,14 +5540,14 @@
       <c r="E15" s="52"/>
       <c r="F15" s="67"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="113"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="124"/>
     </row>
     <row r="16" spans="1:20" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="87"/>
@@ -5554,14 +5557,14 @@
       <c r="E16" s="52"/>
       <c r="F16" s="67"/>
       <c r="G16" s="90"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="108"/>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87"/>
@@ -5571,14 +5574,14 @@
       <c r="E17" s="52"/>
       <c r="F17" s="67"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="87"/>
@@ -5588,14 +5591,14 @@
       <c r="E18" s="52"/>
       <c r="F18" s="67"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="123"/>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87"/>
@@ -5605,14 +5608,14 @@
       <c r="E19" s="52"/>
       <c r="F19" s="67"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="112"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87"/>
@@ -5622,14 +5625,14 @@
       <c r="E20" s="52"/>
       <c r="F20" s="67"/>
       <c r="G20" s="90"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="112"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87"/>
@@ -5639,14 +5642,14 @@
       <c r="E21" s="52"/>
       <c r="F21" s="67"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="112"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="87"/>
@@ -5656,14 +5659,14 @@
       <c r="E22" s="52"/>
       <c r="F22" s="67"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="87"/>
@@ -5673,14 +5676,14 @@
       <c r="E23" s="52"/>
       <c r="F23" s="67"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="108"/>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54"/>
@@ -5690,14 +5693,14 @@
       <c r="E24" s="52"/>
       <c r="F24" s="67"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="110"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="108"/>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54"/>
@@ -5707,14 +5710,14 @@
       <c r="E25" s="52"/>
       <c r="F25" s="67"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="110"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54"/>
@@ -5724,14 +5727,14 @@
       <c r="E26" s="52"/>
       <c r="F26" s="67"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="108"/>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54"/>
@@ -5741,14 +5744,14 @@
       <c r="E27" s="52"/>
       <c r="F27" s="67"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="108"/>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54"/>
@@ -5758,14 +5761,14 @@
       <c r="E28" s="52"/>
       <c r="F28" s="67"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="112"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="120"/>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54"/>
@@ -5775,14 +5778,14 @@
       <c r="E29" s="52"/>
       <c r="F29" s="67"/>
       <c r="G29" s="53"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54"/>
@@ -5792,14 +5795,14 @@
       <c r="E30" s="52"/>
       <c r="F30" s="67"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="110"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54"/>
@@ -5809,14 +5812,14 @@
       <c r="E31" s="52"/>
       <c r="F31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="110"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="108"/>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54"/>
@@ -5826,14 +5829,14 @@
       <c r="E32" s="52"/>
       <c r="F32" s="67"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="123"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54"/>
@@ -5843,14 +5846,14 @@
       <c r="E33" s="52"/>
       <c r="F33" s="67"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="107"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="123"/>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54"/>
@@ -5860,14 +5863,14 @@
       <c r="E34" s="52"/>
       <c r="F34" s="67"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="107"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="123"/>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54"/>
@@ -5877,14 +5880,14 @@
       <c r="E35" s="52"/>
       <c r="F35" s="67"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="107"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="123"/>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54"/>
@@ -5894,14 +5897,14 @@
       <c r="E36" s="52"/>
       <c r="F36" s="67"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="112"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="120"/>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54"/>
@@ -5911,14 +5914,14 @@
       <c r="E37" s="52"/>
       <c r="F37" s="67"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="112"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="120"/>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55"/>
@@ -5928,14 +5931,14 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="115"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="122"/>
     </row>
     <row r="39" spans="1:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="65"/>
@@ -5967,24 +5970,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H32:O32"/>
     <mergeCell ref="H33:O33"/>
@@ -6001,6 +5986,24 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.52" right="0.21" top="0.81" bottom="0.27" header="0.36" footer="0.2"/>
@@ -6017,8 +6020,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -6112,22 +6115,22 @@
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="128" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E16)</f>
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="E6" s="20">
         <v>100000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>15100000</v>
+        <v>16400000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -6156,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" s="139" t="s">
         <v>7</v>
@@ -6212,43 +6215,47 @@
       <c r="R9" s="77"/>
     </row>
     <row r="10" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30">
-        <v>1</v>
-      </c>
-      <c r="B10" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="101">
-        <v>30</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="72" t="s">
-        <v>77</v>
-      </c>
-      <c r="P10" s="6"/>
+      <c r="A10" s="15">
+        <v>5</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="102">
+        <v>10</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="Q10" s="71" t="str">
-        <f t="shared" ref="Q10:Q32" si="0">C10 &amp; " " &amp; D10 &amp; IF(D10="日付/時刻","","(" &amp; E10 &amp; ")") &amp; IF(G10="",""," DEFAULT ( " &amp; G10 &amp; ")")</f>
-        <v>USER_NAME VARCHAR(30)</v>
+        <f t="shared" ref="Q10" si="0">C10 &amp; " " &amp; D10 &amp; IF(D10="日付/時刻","","(" &amp; E10 &amp; ")") &amp; IF(G10="",""," DEFAULT ( " &amp; G10 &amp; ")")</f>
+        <v>USER_ID CHAR(10)</v>
       </c>
       <c r="R10" s="71" t="str">
         <f>"/* " &amp; B10 &amp; "   " &amp; SUBSTITUTE(O10,CHAR(10)," ") &amp; " */"</f>
-        <v>/* 名前   日本語なら10文字 */</v>
+        <v>/* ユーザーID   UR＋連番８文字 */</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -6256,13 +6263,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="102">
         <v>30</v>
@@ -6270,7 +6277,7 @@
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
@@ -6283,11 +6290,11 @@
         <v>29</v>
       </c>
       <c r="Q11" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q10:Q32" si="1">C11 &amp; " " &amp; D11 &amp; IF(D11="日付/時刻","","(" &amp; E11 &amp; ")") &amp; IF(G11="",""," DEFAULT ( " &amp; G11 &amp; ")")</f>
         <v>USER_PASSWORD CHAR(30)</v>
       </c>
       <c r="R11" s="71" t="str">
-        <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
+        <f t="shared" ref="R11:R50" si="2">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
         <v>/* ユーザーパスワード    */</v>
       </c>
     </row>
@@ -6296,13 +6303,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="32" t="s">
         <v>67</v>
-      </c>
-      <c r="D12" s="32" t="s">
-        <v>71</v>
       </c>
       <c r="E12" s="102">
         <v>30</v>
@@ -6310,7 +6317,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -6318,19 +6325,17 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="46" t="s">
-        <v>143</v>
-      </c>
+      <c r="O12" s="46"/>
       <c r="P12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>EMAIL_ADDRESS CHAR(30)</v>
       </c>
       <c r="R12" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
+        <f t="shared" si="2"/>
+        <v>/* メールアドレス    */</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -6338,13 +6343,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E13" s="102">
         <v>40</v>
@@ -6352,7 +6357,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -6365,7 +6370,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>ADDRESS CHAR(40)</v>
       </c>
       <c r="R13" s="71" t="str">
@@ -6375,135 +6380,105 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="32" t="s">
-        <v>73</v>
-      </c>
       <c r="E14" s="102">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
       <c r="H14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>76</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="I14" s="25"/>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
       <c r="O14" s="46" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q14" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>USER_ID INT(16)</v>
+        <f t="shared" ref="Q14" si="3">C14 &amp; " " &amp; D14 &amp; IF(D14="日付/時刻","","(" &amp; E14 &amp; ")") &amp; IF(G14="",""," DEFAULT ( " &amp; G14 &amp; ")")</f>
+        <v>ROLE INT(4) DEFAULT ( 0)</v>
       </c>
       <c r="R14" s="71" t="str">
-        <f>"/* " &amp; B14 &amp; "   " &amp; SUBSTITUTE(O14,CHAR(10)," ") &amp; " */"</f>
-        <v>/* ユーザーID   ランダムに */</v>
+        <f t="shared" ref="R14" si="4">"/* " &amp; B14 &amp; "   " &amp; SUBSTITUTE(O14,CHAR(10)," ") &amp; " */"</f>
+        <v>/* ロール   1→会員　2→ホテル　3→管理者　0→ログインしていない */</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>6</v>
-      </c>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="30">
+        <v>1</v>
+      </c>
+      <c r="B15" s="75" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" s="102">
-        <v>1</v>
-      </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24">
-        <v>0</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="D15" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="101">
+        <v>50</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="P15" s="6"/>
       <c r="Q15" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>ROGIN BOOLEAN(1) DEFAULT ( 0)</v>
+        <f t="shared" ref="Q15" si="5">C15 &amp; " " &amp; D15 &amp; IF(D15="日付/時刻","","(" &amp; E15 &amp; ")") &amp; IF(G15="",""," DEFAULT ( " &amp; G15 &amp; ")")</f>
+        <v>USER_NAME VARCHAR(50)</v>
       </c>
       <c r="R15" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>/* ログイン   ログイン中→ture　ログアウト→false */</v>
+        <f>"/* " &amp; B15 &amp; "   " &amp; SUBSTITUTE(O15,CHAR(10)," ") &amp; " */"</f>
+        <v>/* 名前   日本語なら25文字 */</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>7</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>146</v>
-      </c>
-      <c r="D16" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="102">
-        <v>4</v>
-      </c>
+      <c r="A16" s="15"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="24">
-        <v>0</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>42</v>
-      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="71" t="str">
-        <f t="shared" si="0"/>
-        <v>ROLE INT(4) DEFAULT ( 0)</v>
-      </c>
-      <c r="R16" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>/* ロール   1→会員　2→ホテル　3→管理者　0→ログインしていない */</v>
-      </c>
+      <c r="O16" s="46"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
@@ -6617,11 +6592,11 @@
         <v>29</v>
       </c>
       <c r="Q22" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R22" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6647,11 +6622,11 @@
         <v>29</v>
       </c>
       <c r="Q23" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R23" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6677,11 +6652,11 @@
         <v>29</v>
       </c>
       <c r="Q24" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R24" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6707,11 +6682,11 @@
         <v>29</v>
       </c>
       <c r="Q25" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R25" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6737,11 +6712,11 @@
         <v>29</v>
       </c>
       <c r="Q26" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R26" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6767,11 +6742,11 @@
         <v>29</v>
       </c>
       <c r="Q27" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R27" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6797,11 +6772,11 @@
         <v>29</v>
       </c>
       <c r="Q28" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R28" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6827,11 +6802,11 @@
         <v>29</v>
       </c>
       <c r="Q29" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R29" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6857,11 +6832,11 @@
         <v>29</v>
       </c>
       <c r="Q30" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R30" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6887,11 +6862,11 @@
         <v>29</v>
       </c>
       <c r="Q31" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R31" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -6917,11 +6892,11 @@
         <v>29</v>
       </c>
       <c r="Q32" s="71" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R32" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7007,11 +6982,11 @@
         <v>29</v>
       </c>
       <c r="Q35" s="71" t="str">
-        <f t="shared" ref="Q35:Q43" si="2">C35 &amp; " " &amp; D35 &amp; IF(D35="日付/時刻","","(" &amp; E35 &amp; ")") &amp; IF(G35="",""," DEFAULT ( " &amp; G35 &amp; ")")</f>
+        <f t="shared" ref="Q35:Q43" si="6">C35 &amp; " " &amp; D35 &amp; IF(D35="日付/時刻","","(" &amp; E35 &amp; ")") &amp; IF(G35="",""," DEFAULT ( " &amp; G35 &amp; ")")</f>
         <v xml:space="preserve"> ()</v>
       </c>
       <c r="R35" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7037,11 +7012,11 @@
         <v>29</v>
       </c>
       <c r="Q36" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R36" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R36" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7067,11 +7042,11 @@
         <v>29</v>
       </c>
       <c r="Q37" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R37" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R37" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7097,11 +7072,11 @@
         <v>29</v>
       </c>
       <c r="Q38" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R38" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R38" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7127,11 +7102,11 @@
         <v>29</v>
       </c>
       <c r="Q39" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R39" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R39" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7157,11 +7132,11 @@
         <v>29</v>
       </c>
       <c r="Q40" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R40" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R40" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7187,11 +7162,11 @@
         <v>29</v>
       </c>
       <c r="Q41" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R41" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R41" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7200,11 +7175,11 @@
         <v>29</v>
       </c>
       <c r="Q42" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R42" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R42" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7213,11 +7188,11 @@
         <v>29</v>
       </c>
       <c r="Q43" s="71" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> ()</v>
+      </c>
+      <c r="R43" s="71" t="str">
         <f t="shared" si="2"/>
-        <v xml:space="preserve"> ()</v>
-      </c>
-      <c r="R43" s="71" t="str">
-        <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7238,43 +7213,43 @@
       <c r="N44" s="5"/>
       <c r="O44" s="50"/>
       <c r="R44" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R45" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R46" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R47" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="R48" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
     <row r="49" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R49" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
     <row r="50" spans="18:18" x14ac:dyDescent="0.2">
       <c r="R50" s="71" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
@@ -7313,8 +7288,8 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -7408,22 +7383,22 @@
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="145"/>
       <c r="C6" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E15)</f>
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="20">
         <v>100000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(RECLEN,E6)</f>
-        <v>6900000</v>
+        <v>7100000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -7512,16 +7487,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E10" s="31">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -7536,15 +7511,17 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="74"/>
+      <c r="O10" s="74" t="s">
+        <v>134</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="71" t="str">
         <f t="shared" ref="Q10:Q44" si="0">C10 &amp; " " &amp; D10 &amp; IF(D10="日付/時刻","","(" &amp; E10 &amp; ")") &amp; IF(G10="",""," DEFAULT ( " &amp; G10 &amp; ")")</f>
-        <v>RESERVATION_ID INT(20)</v>
+        <v>RESERVATION_ID CHER(22)</v>
       </c>
       <c r="R10" s="71" t="str">
         <f t="shared" ref="R10:R51" si="1">"/* " &amp; B10 &amp; "   " &amp; SUBSTITUTE(O10,CHAR(10)," ") &amp; " */"</f>
-        <v>/* 予約情報ID    */</v>
+        <v>/* 予約情報ID   yyyymm+ユーザーID+連番3桁 */</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -7552,13 +7529,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E11" s="24">
         <v>20</v>
@@ -7574,19 +7551,17 @@
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
-      <c r="O11" s="59" t="s">
-        <v>87</v>
-      </c>
+      <c r="O11" s="59"/>
       <c r="P11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID INT(20)</v>
+        <v>USER_ID CHER(20)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ユーザーID   予約した人のID */</v>
+        <v>/* ユーザーID    */</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -7594,13 +7569,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E12" s="24">
         <v>20</v>
@@ -7608,7 +7583,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -7616,19 +7591,17 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="60" t="s">
-        <v>88</v>
-      </c>
+      <c r="O12" s="60"/>
       <c r="P12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>PLAN_ID INT(20)</v>
+        <v>PLAN_ID CHER(20)</v>
       </c>
       <c r="R12" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* プランID   予約したプランのID */</v>
+        <v>/* プランID    */</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -7636,13 +7609,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E13" s="24">
         <v>3</v>
@@ -7650,7 +7623,7 @@
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -7676,13 +7649,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="96" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E14" s="24">
         <v>3</v>
@@ -7716,13 +7689,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="96" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E15" s="24">
         <v>3</v>
@@ -7730,7 +7703,7 @@
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -8741,8 +8714,8 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView zoomScale="71" zoomScaleNormal="71" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -8836,22 +8809,22 @@
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="144" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="145"/>
       <c r="C6" s="91" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E15)</f>
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="E6" s="20">
         <v>1000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(RECLEN,E6)</f>
-        <v>1264000</v>
+        <v>1254000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -8892,7 +8865,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J8" s="135" t="s">
         <v>8</v>
@@ -8940,16 +8913,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="95" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E10" s="31">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -8964,15 +8937,17 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="74"/>
+      <c r="O10" s="74" t="s">
+        <v>135</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="71" t="str">
         <f t="shared" ref="Q10:Q44" si="0">C10 &amp; " " &amp; D10 &amp; IF(D10="日付/時刻","","(" &amp; E10 &amp; ")") &amp; IF(G10="",""," DEFAULT ( " &amp; G10 &amp; ")")</f>
-        <v>REVIEW_ID INT(20)</v>
+        <v>REVIEW_ID CHER(10)</v>
       </c>
       <c r="R10" s="71" t="str">
         <f t="shared" ref="R10:R51" si="1">"/* " &amp; B10 &amp; "   " &amp; SUBSTITUTE(O10,CHAR(10)," ") &amp; " */"</f>
-        <v>/* 口コミID    */</v>
+        <v>/* 口コミID   連番10桁 */</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -8980,13 +8955,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="96" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E11" s="24">
         <v>20</v>
@@ -9003,14 +8978,14 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
       <c r="O11" s="59" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>USER_ID INT(20)</v>
+        <v>USER_ID CHER(20)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" si="1"/>
@@ -9022,13 +8997,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="96" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E12" s="24">
         <v>20</v>
@@ -9036,7 +9011,7 @@
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
@@ -9045,14 +9020,14 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
       <c r="O12" s="60" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q12" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>HOTEL_ID INT(20)</v>
+        <v>HOTEL_ID CHER(20)</v>
       </c>
       <c r="R12" s="71" t="str">
         <f t="shared" si="1"/>
@@ -9064,13 +9039,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E13" s="24">
         <v>3</v>
@@ -9104,13 +9079,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>104</v>
       </c>
       <c r="E14" s="24">
         <v>1</v>
@@ -9127,7 +9102,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
       <c r="O14" s="59" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="P14" s="6" t="s">
         <v>29</v>
@@ -9146,13 +9121,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="E15" s="24">
         <v>1200</v>
@@ -9169,14 +9144,14 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
       <c r="O15" s="35" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>DETAIL VARCHAR(1200)</v>
+        <v>DETAIL TEXT(1200)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f>"/* " &amp; B15 &amp; "   " &amp; SUBSTITUTE(O14,CHAR(10)," ") &amp; " */"</f>
@@ -10173,8 +10148,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -10268,22 +10243,22 @@
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="128" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>162</v>
+        <v>222</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>1620000</v>
+        <v>2220000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -10312,7 +10287,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" s="139" t="s">
         <v>7</v>
@@ -10372,16 +10347,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E10" s="101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -10396,15 +10371,17 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="72"/>
+      <c r="O10" s="72" t="s">
+        <v>136</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="71" t="str">
         <f t="shared" ref="Q10:Q32" si="0">C10 &amp; " " &amp; D10 &amp; IF(D10="日付/時刻","","(" &amp; E10 &amp; ")") &amp; IF(G10="",""," DEFAULT ( " &amp; G10 &amp; ")")</f>
-        <v>HOTEL_ID INT(20)</v>
+        <v>HOTEL_ID CHAR(10)</v>
       </c>
       <c r="R10" s="71" t="str">
         <f>"/* " &amp; B10 &amp; "   " &amp; SUBSTITUTE(O10,CHAR(10)," ") &amp; " */"</f>
-        <v>/* ホテルID    */</v>
+        <v>/* ホテルID   県番号(2桁)+連番8 */</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -10412,13 +10389,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="102">
         <v>60</v>
@@ -10443,7 +10420,7 @@
         <v>ADDRESS CHAR(60)</v>
       </c>
       <c r="R11" s="71" t="str">
-        <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
+        <f>"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
         <v>/* 住所    */</v>
       </c>
     </row>
@@ -10452,13 +10429,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E12" s="102">
         <v>30</v>
@@ -10474,9 +10451,7 @@
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
-      <c r="O12" s="46" t="s">
-        <v>112</v>
-      </c>
+      <c r="O12" s="46"/>
       <c r="P12" s="6" t="s">
         <v>29</v>
       </c>
@@ -10485,8 +10460,8 @@
         <v>EMAIL CHAR(30)</v>
       </c>
       <c r="R12" s="71" t="str">
-        <f t="shared" si="1"/>
-        <v>/* メールアドレス   ○○○○@○○.comのような感じで */</v>
+        <f t="shared" ref="R12:R50" si="1">"/* " &amp; B12 &amp; "   " &amp; SUBSTITUTE(O12,CHAR(10)," ") &amp; " */"</f>
+        <v>/* メールアドレス    */</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
@@ -10494,13 +10469,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E13" s="102">
         <v>12</v>
@@ -10517,18 +10492,18 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
       <c r="O13" s="46" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q13" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>PHONE_NUMBER INT(12)</v>
+        <v>PHONE_NUMBER CHAR(12)</v>
       </c>
       <c r="R13" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* 電話番号   08054932003みたいな感じ */</v>
+        <v>/* 電話番号   ハイフンは抜く */</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
@@ -10536,13 +10511,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E14" s="102">
         <v>20</v>
@@ -10576,16 +10551,16 @@
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E15" s="102">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -10604,7 +10579,7 @@
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>HOTEL_NAME CHAR(20)</v>
+        <v>HOTEL_NAME CHAR(90)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
@@ -11449,8 +11424,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -11544,11 +11519,11 @@
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="128" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
@@ -11588,7 +11563,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" s="139" t="s">
         <v>7</v>
@@ -11648,13 +11623,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E10" s="101">
         <v>20</v>
@@ -11672,15 +11647,17 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="72"/>
+      <c r="O10" s="72" t="s">
+        <v>137</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="71" t="str">
         <f t="shared" ref="Q10:Q32" si="0">C10 &amp; " " &amp; D10 &amp; IF(D10="日付/時刻","","(" &amp; E10 &amp; ")") &amp; IF(G10="",""," DEFAULT ( " &amp; G10 &amp; ")")</f>
-        <v>PLAN_ID INT(20)</v>
+        <v>PLAN_ID CHAR(20)</v>
       </c>
       <c r="R10" s="71" t="str">
         <f>"/* " &amp; B10 &amp; "   " &amp; SUBSTITUTE(O10,CHAR(10)," ") &amp; " */"</f>
-        <v>/* プランID    */</v>
+        <v>/* プランID   ホテルID＋1+連番3桁 */</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -11688,13 +11665,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E11" s="102">
         <v>30</v>
@@ -11728,13 +11705,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="102">
         <v>3</v>
@@ -11768,13 +11745,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E13" s="102">
         <v>20</v>
@@ -11796,7 +11773,7 @@
       </c>
       <c r="Q13" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>HOTEL_ID INT(20)</v>
+        <v>HOTEL_ID CHAR(20)</v>
       </c>
       <c r="R13" s="71" t="str">
         <f t="shared" si="1"/>
@@ -11808,13 +11785,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E14" s="102">
         <v>10</v>
@@ -11836,7 +11813,7 @@
       </c>
       <c r="Q14" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>CHARGE CHAR(10)</v>
+        <v>CHARGE INT(10)</v>
       </c>
       <c r="R14" s="71" t="str">
         <f t="shared" si="1"/>
@@ -11848,13 +11825,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E15" s="102">
         <v>20</v>
@@ -11876,7 +11853,7 @@
       </c>
       <c r="Q15" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ROOM_ID INT(20)</v>
+        <v>ROOM_ID CHAR(20)</v>
       </c>
       <c r="R15" s="71" t="str">
         <f t="shared" si="1"/>
@@ -12666,8 +12643,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -12761,22 +12738,22 @@
     </row>
     <row r="6" spans="1:18" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="129"/>
       <c r="C6" s="91" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>310000</v>
+        <v>280000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -12805,7 +12782,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="139" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F8" s="139" t="s">
         <v>7</v>
@@ -12865,13 +12842,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="75" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D10" s="100" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E10" s="101">
         <v>20</v>
@@ -12889,15 +12866,17 @@
       <c r="L10" s="32"/>
       <c r="M10" s="32"/>
       <c r="N10" s="33"/>
-      <c r="O10" s="72"/>
+      <c r="O10" s="72" t="s">
+        <v>138</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="71" t="str">
         <f t="shared" ref="Q10:Q32" si="0">C10 &amp; " " &amp; D10 &amp; IF(D10="日付/時刻","","(" &amp; E10 &amp; ")") &amp; IF(G10="",""," DEFAULT ( " &amp; G10 &amp; ")")</f>
-        <v>ROOM_ID INT(20)</v>
+        <v>ROOM_ID CHAR(20)</v>
       </c>
       <c r="R10" s="71" t="str">
         <f>"/* " &amp; B10 &amp; "   " &amp; SUBSTITUTE(O10,CHAR(10)," ") &amp; " */"</f>
-        <v>/* 部屋ID    */</v>
+        <v>/* 部屋ID   ホテルID＋2+連番3桁 */</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
@@ -12905,16 +12884,16 @@
         <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="E11" s="102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -12933,11 +12912,11 @@
       </c>
       <c r="Q11" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>ROOM_WIDTH FLOAT(4)</v>
+        <v>ROOM_WIDTH BOOLEAN(1)</v>
       </c>
       <c r="R11" s="71" t="str">
         <f t="shared" ref="R11:R50" si="1">"/* " &amp; B11 &amp; "   " &amp; SUBSTITUTE(O11,CHAR(10)," ") &amp; " */"</f>
-        <v>/* 面積    */</v>
+        <v>/* 冷蔵庫    */</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
@@ -12945,13 +12924,13 @@
         <v>3</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E12" s="102">
         <v>2</v>
@@ -12985,13 +12964,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E13" s="102">
         <v>1</v>
@@ -13025,13 +13004,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E14" s="102">
         <v>1</v>
@@ -13065,13 +13044,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15" s="102">
         <v>1</v>
@@ -13105,13 +13084,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E16" s="102">
         <v>1</v>
@@ -13145,13 +13124,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E17" s="102">
         <v>1</v>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4834E3A2-BB68-4180-A2C4-041DBAF09FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84685368-422F-4794-A828-3D522E195DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="2565" windowWidth="21600" windowHeight="11295" tabRatio="757" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="757" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -847,7 +847,16 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>PATH</t>
+    <t>images/配下に写真を置く images/〇〇〇</t>
+    <rPh sb="7" eb="9">
+      <t>ハイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>オ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1721,6 +1730,44 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1731,51 +1778,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6134,10 +6143,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -6153,22 +6162,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="143"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="129" t="s">
         <v>45</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="91" t="s">
         <v>50</v>
       </c>
@@ -6186,65 +6195,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="147"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="133"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="148" t="s">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="139" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -6260,7 +6269,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="149"/>
+      <c r="O9" s="140"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -7560,10 +7569,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -7579,22 +7588,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
-      <c r="O5" s="143"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="126"/>
+      <c r="M5" s="126"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="128"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="129" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="145"/>
+      <c r="B6" s="130"/>
       <c r="C6" s="91" t="s">
         <v>84</v>
       </c>
@@ -7612,65 +7621,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="146"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="147"/>
+      <c r="H6" s="131"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
+      <c r="K6" s="132"/>
+      <c r="L6" s="132"/>
+      <c r="M6" s="132"/>
+      <c r="N6" s="132"/>
+      <c r="O6" s="133"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="148" t="s">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="139" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -7686,7 +7695,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="149"/>
+      <c r="O9" s="140"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -8931,8 +8940,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8994,10 +9003,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -9013,22 +9022,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="91" t="s">
         <v>53</v>
       </c>
@@ -9046,65 +9055,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="147"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="148" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -9120,7 +9129,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -9408,11 +9417,13 @@
       </c>
       <c r="R16" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* ホテル写真   PATH */</v>
+        <v>/* ホテル写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
+      <c r="A17" s="15">
+        <v>8</v>
+      </c>
       <c r="B17" s="40" t="s">
         <v>147</v>
       </c>
@@ -9448,7 +9459,9 @@
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
+      <c r="A18" s="15">
+        <v>9</v>
+      </c>
       <c r="B18" s="40"/>
       <c r="C18" s="24"/>
       <c r="D18" s="32"/>
@@ -10300,10 +10313,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -10319,22 +10332,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="144" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="91" t="s">
         <v>52</v>
       </c>
@@ -10352,65 +10365,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="147"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="148" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -10426,7 +10439,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -11474,8 +11487,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11537,10 +11550,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -11556,22 +11569,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="144" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="91" t="s">
         <v>54</v>
       </c>
@@ -11589,65 +11602,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="147"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="148" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -11663,7 +11676,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
@@ -12025,7 +12038,7 @@
       </c>
       <c r="R18" s="71" t="str">
         <f t="shared" si="1"/>
-        <v>/* 部屋写真   PATH */</v>
+        <v>/* 部屋写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
@@ -12869,10 +12882,10 @@
     </row>
     <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="142" t="s">
+      <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
@@ -12888,22 +12901,22 @@
       <c r="G5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="125" t="s">
+      <c r="H5" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="127"/>
+      <c r="I5" s="142"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
+      <c r="N5" s="142"/>
+      <c r="O5" s="143"/>
     </row>
     <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="128" t="s">
+      <c r="A6" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="129"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="91" t="s">
         <v>61</v>
       </c>
@@ -12921,65 +12934,65 @@
       <c r="G6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="130"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
-      <c r="M6" s="131"/>
-      <c r="N6" s="131"/>
-      <c r="O6" s="132"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="146"/>
+      <c r="J6" s="146"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="147"/>
     </row>
     <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="140" t="s">
+      <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="139" t="s">
+      <c r="B8" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="139" t="s">
+      <c r="D8" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="139" t="s">
+      <c r="E8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="F8" s="139" t="s">
+      <c r="F8" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="139" t="s">
+      <c r="G8" s="136" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="139" t="s">
+      <c r="H8" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="133" t="s">
+      <c r="I8" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="135" t="s">
+      <c r="J8" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="136"/>
-      <c r="L8" s="136"/>
-      <c r="M8" s="136"/>
-      <c r="N8" s="136"/>
-      <c r="O8" s="137" t="s">
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="148" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="141"/>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="137"/>
+      <c r="E9" s="137"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="18" t="s">
         <v>9</v>
       </c>
@@ -12995,7 +13008,7 @@
       <c r="N9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="138"/>
+      <c r="O9" s="149"/>
       <c r="P9" s="76"/>
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84685368-422F-4794-A828-3D522E195DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3811C40D-9E01-4E34-8983-1CCF04119B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="757" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="2565" windowWidth="21600" windowHeight="11295" tabRatio="757" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="158">
   <si>
     <t>備考</t>
   </si>
@@ -857,6 +857,31 @@
     <rPh sb="13" eb="14">
       <t>オ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>子供料金</t>
+    <rPh sb="0" eb="4">
+      <t>コドモリョウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>乳幼児料金</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウヨウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CHILD_CHARGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>INFANT_CHARGE</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5489,14 +5514,14 @@
       </c>
       <c r="D11" s="97">
         <f>SUM(プラン!E10:E21)</f>
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="E11" s="67">
         <v>10000</v>
       </c>
       <c r="F11" s="84">
         <f t="shared" si="0"/>
-        <v>10030000</v>
+        <v>10230000</v>
       </c>
       <c r="G11" s="98" t="s">
         <v>21</v>
@@ -8940,7 +8965,7 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -10250,8 +10275,8 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10353,14 +10378,14 @@
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E21)</f>
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="E6" s="20">
         <v>10000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>10030000</v>
+        <v>10230000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -10724,10 +10749,18 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="102"/>
+      <c r="B17" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="102">
+        <v>10</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
@@ -10739,13 +10772,29 @@
       <c r="N17" s="26"/>
       <c r="O17" s="46"/>
       <c r="P17" s="6"/>
+      <c r="Q17" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>CHILD_CHARGE INT(10)</v>
+      </c>
+      <c r="R17" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 子供料金    */</v>
+      </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="102"/>
+      <c r="B18" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="102">
+        <v>10</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="25"/>
@@ -10757,6 +10806,14 @@
       <c r="N18" s="26"/>
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
+      <c r="Q18" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>INFANT_CHARGE INT(10)</v>
+      </c>
+      <c r="R18" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 乳幼児料金    */</v>
+      </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0042\システム開発演習\group_project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3811C40D-9E01-4E34-8983-1CCF04119B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B484AC-3DF4-4A64-9C47-B1A24347345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="2565" windowWidth="21600" windowHeight="11295" tabRatio="757" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="757" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="170">
   <si>
     <t>備考</t>
   </si>
@@ -882,6 +882,78 @@
   </si>
   <si>
     <t>INFANT_CHARGE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハイフン抜き</t>
+    <rPh sb="4" eb="5">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生年月日</t>
+    <rPh sb="0" eb="4">
+      <t>セイネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>/付き</t>
+    <rPh sb="1" eb="2">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SEX</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0→男、1→女</t>
+    <rPh sb="2" eb="3">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>名前(カナ)</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>USER_NAME_JP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>郵便番号</t>
+    <rPh sb="0" eb="4">
+      <t>ユウビンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ZIP_CODE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ZIP</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1715,25 +1787,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1743,6 +1796,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1755,6 +1811,22 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5259,20 +5331,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="4.5" style="68" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="68" customWidth="1"/>
-    <col min="4" max="4" width="9.75" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="68" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="68" customWidth="1"/>
     <col min="6" max="6" width="11" style="68" customWidth="1"/>
     <col min="7" max="7" width="9" style="68"/>
-    <col min="8" max="15" width="7.125" style="68" customWidth="1"/>
+    <col min="8" max="15" width="7.1328125" style="68" customWidth="1"/>
     <col min="16" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -5291,11 +5363,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B2" s="44"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="64"/>
       <c r="C3" s="3"/>
@@ -5312,8 +5384,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
@@ -5335,18 +5407,18 @@
       <c r="G5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="118"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="105"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6" s="54"/>
       <c r="B6" s="86" t="s">
         <v>34</v>
@@ -5356,16 +5428,16 @@
       <c r="E6" s="52"/>
       <c r="F6" s="83"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="122"/>
-      <c r="I6" s="123"/>
-      <c r="J6" s="123"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="123"/>
-      <c r="M6" s="123"/>
-      <c r="N6" s="123"/>
-      <c r="O6" s="124"/>
-    </row>
-    <row r="7" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="114"/>
+    </row>
+    <row r="7" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
@@ -5377,28 +5449,28 @@
       </c>
       <c r="D7" s="20">
         <f>SUM(ユーザー情報!E10:E21)</f>
-        <v>164</v>
+        <v>256</v>
       </c>
       <c r="E7" s="52">
         <v>10000</v>
       </c>
       <c r="F7" s="83">
         <f t="shared" ref="F7:F12" si="0">SUMPRODUCT(D7,E7)</f>
-        <v>1640000</v>
+        <v>2560000</v>
       </c>
       <c r="G7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="119"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
-      <c r="K7" s="120"/>
-      <c r="L7" s="120"/>
-      <c r="M7" s="120"/>
-      <c r="N7" s="120"/>
-      <c r="O7" s="121"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="109"/>
+      <c r="I7" s="110"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="110"/>
+      <c r="M7" s="110"/>
+      <c r="N7" s="110"/>
+      <c r="O7" s="111"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
@@ -5422,16 +5494,16 @@
       <c r="G8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="110"/>
-    </row>
-    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="108"/>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="93" t="s">
         <v>37</v>
       </c>
@@ -5455,16 +5527,16 @@
       <c r="G9" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="121"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="109"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
+      <c r="M9" s="110"/>
+      <c r="N9" s="110"/>
+      <c r="O9" s="111"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="88" t="s">
         <v>38</v>
       </c>
@@ -5488,21 +5560,21 @@
       <c r="G10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="108"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109"/>
-      <c r="N10" s="109"/>
-      <c r="O10" s="110"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="108"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="87" t="s">
         <v>39</v>
       </c>
@@ -5526,21 +5598,21 @@
       <c r="G11" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="103"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="104"/>
-      <c r="N11" s="104"/>
-      <c r="O11" s="105"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="116"/>
+      <c r="O11" s="117"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="87" t="s">
         <v>40</v>
       </c>
@@ -5564,21 +5636,21 @@
       <c r="G12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109"/>
-      <c r="N12" s="109"/>
-      <c r="O12" s="110"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="108"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="87"/>
       <c r="B13" s="79"/>
       <c r="C13" s="89"/>
@@ -5586,21 +5658,21 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="98"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104"/>
-      <c r="O13" s="105"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="117"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="54"/>
       <c r="B14" s="79"/>
       <c r="C14" s="51"/>
@@ -5608,16 +5680,16 @@
       <c r="E14" s="52"/>
       <c r="F14" s="67"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="110"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H14" s="106"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="108"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="87"/>
       <c r="B15" s="86"/>
       <c r="C15" s="51"/>
@@ -5625,16 +5697,16 @@
       <c r="E15" s="52"/>
       <c r="F15" s="67"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="113"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="106"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="124"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="87"/>
       <c r="B16" s="81"/>
       <c r="C16" s="88"/>
@@ -5642,16 +5714,16 @@
       <c r="E16" s="52"/>
       <c r="F16" s="67"/>
       <c r="G16" s="90"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109"/>
-      <c r="N16" s="109"/>
-      <c r="O16" s="110"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H16" s="106"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="108"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="87"/>
       <c r="B17" s="81"/>
       <c r="C17" s="88"/>
@@ -5659,16 +5731,16 @@
       <c r="E17" s="52"/>
       <c r="F17" s="67"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="111"/>
-      <c r="K17" s="111"/>
-      <c r="L17" s="111"/>
-      <c r="M17" s="111"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="119"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="M17" s="119"/>
+      <c r="N17" s="119"/>
+      <c r="O17" s="120"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="87"/>
       <c r="B18" s="81"/>
       <c r="C18" s="88"/>
@@ -5676,16 +5748,16 @@
       <c r="E18" s="52"/>
       <c r="F18" s="67"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="106"/>
-      <c r="K18" s="106"/>
-      <c r="L18" s="106"/>
-      <c r="M18" s="106"/>
-      <c r="N18" s="106"/>
-      <c r="O18" s="107"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="118"/>
+      <c r="L18" s="118"/>
+      <c r="M18" s="118"/>
+      <c r="N18" s="118"/>
+      <c r="O18" s="123"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="87"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88"/>
@@ -5693,16 +5765,16 @@
       <c r="E19" s="52"/>
       <c r="F19" s="67"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="112"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="87"/>
       <c r="B20" s="81"/>
       <c r="C20" s="88"/>
@@ -5710,16 +5782,16 @@
       <c r="E20" s="52"/>
       <c r="F20" s="67"/>
       <c r="G20" s="90"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="111"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="111"/>
-      <c r="L20" s="111"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="111"/>
-      <c r="O20" s="112"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="119"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="120"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="87"/>
       <c r="B21" s="81"/>
       <c r="C21" s="51"/>
@@ -5727,16 +5799,16 @@
       <c r="E21" s="52"/>
       <c r="F21" s="67"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="111"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="111"/>
-      <c r="O21" s="112"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
+      <c r="J21" s="119"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="M21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="120"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="87"/>
       <c r="B22" s="81"/>
       <c r="C22" s="51"/>
@@ -5744,16 +5816,16 @@
       <c r="E22" s="52"/>
       <c r="F22" s="67"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="111"/>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="111"/>
-      <c r="N22" s="111"/>
-      <c r="O22" s="112"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="87"/>
       <c r="B23" s="81"/>
       <c r="C23" s="51"/>
@@ -5761,16 +5833,16 @@
       <c r="E23" s="52"/>
       <c r="F23" s="67"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="110"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H23" s="106"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="108"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="54"/>
       <c r="B24" s="81"/>
       <c r="C24" s="51"/>
@@ -5778,16 +5850,16 @@
       <c r="E24" s="52"/>
       <c r="F24" s="67"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="109"/>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="110"/>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H24" s="106"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="107"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="108"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="54"/>
       <c r="B25" s="81"/>
       <c r="C25" s="51"/>
@@ -5795,16 +5867,16 @@
       <c r="E25" s="52"/>
       <c r="F25" s="67"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="109"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="110"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H25" s="106"/>
+      <c r="I25" s="107"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="54"/>
       <c r="B26" s="81"/>
       <c r="C26" s="51"/>
@@ -5812,16 +5884,16 @@
       <c r="E26" s="52"/>
       <c r="F26" s="67"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="109"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H26" s="106"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="108"/>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="54"/>
       <c r="B27" s="81"/>
       <c r="C27" s="51"/>
@@ -5829,16 +5901,16 @@
       <c r="E27" s="52"/>
       <c r="F27" s="67"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="109"/>
-      <c r="J27" s="109"/>
-      <c r="K27" s="109"/>
-      <c r="L27" s="109"/>
-      <c r="M27" s="109"/>
-      <c r="N27" s="109"/>
-      <c r="O27" s="110"/>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H27" s="106"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="108"/>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="54"/>
       <c r="B28" s="81"/>
       <c r="C28" s="51"/>
@@ -5846,16 +5918,16 @@
       <c r="E28" s="52"/>
       <c r="F28" s="67"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="111"/>
-      <c r="J28" s="111"/>
-      <c r="K28" s="111"/>
-      <c r="L28" s="111"/>
-      <c r="M28" s="111"/>
-      <c r="N28" s="111"/>
-      <c r="O28" s="112"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="119"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="119"/>
+      <c r="O28" s="120"/>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="54"/>
       <c r="B29" s="81"/>
       <c r="C29" s="51"/>
@@ -5863,16 +5935,16 @@
       <c r="E29" s="52"/>
       <c r="F29" s="67"/>
       <c r="G29" s="53"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
-    </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H29" s="106"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="54"/>
       <c r="B30" s="81"/>
       <c r="C30" s="51"/>
@@ -5880,16 +5952,16 @@
       <c r="E30" s="52"/>
       <c r="F30" s="67"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="110"/>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H30" s="106"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="54"/>
       <c r="B31" s="81"/>
       <c r="C31" s="51"/>
@@ -5897,16 +5969,16 @@
       <c r="E31" s="52"/>
       <c r="F31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="108"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="110"/>
-    </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H31" s="106"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="107"/>
+      <c r="N31" s="107"/>
+      <c r="O31" s="108"/>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="54"/>
       <c r="B32" s="81"/>
       <c r="C32" s="51"/>
@@ -5914,16 +5986,16 @@
       <c r="E32" s="52"/>
       <c r="F32" s="67"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-      <c r="O32" s="107"/>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="118"/>
+      <c r="K32" s="118"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="123"/>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="54"/>
       <c r="B33" s="81"/>
       <c r="C33" s="51"/>
@@ -5931,16 +6003,16 @@
       <c r="E33" s="52"/>
       <c r="F33" s="67"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-      <c r="O33" s="107"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+      <c r="J33" s="118"/>
+      <c r="K33" s="118"/>
+      <c r="L33" s="118"/>
+      <c r="M33" s="118"/>
+      <c r="N33" s="118"/>
+      <c r="O33" s="123"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="54"/>
       <c r="B34" s="81"/>
       <c r="C34" s="51"/>
@@ -5948,16 +6020,16 @@
       <c r="E34" s="52"/>
       <c r="F34" s="67"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-      <c r="O34" s="107"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="118"/>
+      <c r="L34" s="118"/>
+      <c r="M34" s="118"/>
+      <c r="N34" s="118"/>
+      <c r="O34" s="123"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="54"/>
       <c r="B35" s="81"/>
       <c r="C35" s="51"/>
@@ -5965,16 +6037,16 @@
       <c r="E35" s="52"/>
       <c r="F35" s="67"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-      <c r="O35" s="107"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="118"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="118"/>
+      <c r="O35" s="123"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="54"/>
       <c r="B36" s="81"/>
       <c r="C36" s="51"/>
@@ -5982,16 +6054,16 @@
       <c r="E36" s="52"/>
       <c r="F36" s="67"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="111"/>
-      <c r="J36" s="111"/>
-      <c r="K36" s="111"/>
-      <c r="L36" s="111"/>
-      <c r="M36" s="111"/>
-      <c r="N36" s="111"/>
-      <c r="O36" s="112"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H36" s="118"/>
+      <c r="I36" s="119"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="119"/>
+      <c r="M36" s="119"/>
+      <c r="N36" s="119"/>
+      <c r="O36" s="120"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="54"/>
       <c r="B37" s="81"/>
       <c r="C37" s="51"/>
@@ -5999,16 +6071,16 @@
       <c r="E37" s="52"/>
       <c r="F37" s="67"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="112"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H37" s="118"/>
+      <c r="I37" s="119"/>
+      <c r="J37" s="119"/>
+      <c r="K37" s="119"/>
+      <c r="L37" s="119"/>
+      <c r="M37" s="119"/>
+      <c r="N37" s="119"/>
+      <c r="O37" s="120"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A38" s="55"/>
       <c r="B38" s="81"/>
       <c r="C38" s="56"/>
@@ -6016,19 +6088,19 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="114"/>
-      <c r="I38" s="114"/>
-      <c r="J38" s="114"/>
-      <c r="K38" s="114"/>
-      <c r="L38" s="114"/>
-      <c r="M38" s="114"/>
-      <c r="N38" s="114"/>
-      <c r="O38" s="115"/>
-    </row>
-    <row r="39" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H38" s="121"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="121"/>
+      <c r="K38" s="121"/>
+      <c r="L38" s="121"/>
+      <c r="M38" s="121"/>
+      <c r="N38" s="121"/>
+      <c r="O38" s="122"/>
+    </row>
+    <row r="39" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="69"/>
       <c r="C40" s="5"/>
@@ -6045,34 +6117,16 @@
       <c r="N40" s="5"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
       <c r="B41" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
       <c r="H44" s="68" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H9:O9"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H32:O32"/>
     <mergeCell ref="H33:O33"/>
@@ -6089,6 +6143,24 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H16:O16"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:O35"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.52" right="0.21" top="0.81" bottom="0.27" header="0.36" footer="0.2"/>
@@ -6109,27 +6181,27 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.86328125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
     <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -6148,8 +6220,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6166,8 +6238,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6270,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="128"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="129" t="s">
         <v>45</v>
       </c>
@@ -6229,8 +6301,8 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -6269,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -6299,7 +6371,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -6341,7 +6413,7 @@
         <v>/* 予約情報ID   yyyymm+ユーザーID+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -6381,7 +6453,7 @@
         <v>/* ユーザーID    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -6421,7 +6493,7 @@
         <v>/* プランID    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -6461,7 +6533,7 @@
         <v>/* 予約日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -6501,7 +6573,7 @@
         <v>/* 宿泊開始日    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -6541,7 +6613,7 @@
         <v>/* 宿泊終了日    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -6571,7 +6643,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -6601,7 +6673,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -6631,7 +6703,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -6661,7 +6733,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -6691,7 +6763,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -6721,7 +6793,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -6751,7 +6823,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -6781,7 +6853,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -6811,7 +6883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -6841,7 +6913,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -6871,7 +6943,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -6901,7 +6973,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -6931,7 +7003,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -6961,7 +7033,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -6993,7 +7065,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -7025,7 +7097,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -7057,7 +7129,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -7089,7 +7161,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -7121,7 +7193,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -7153,7 +7225,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -7185,7 +7257,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -7217,7 +7289,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -7249,7 +7321,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -7281,7 +7353,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -7313,7 +7385,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -7345,7 +7417,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -7377,7 +7449,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -7409,7 +7481,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -7439,19 +7511,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -7472,25 +7544,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -7535,27 +7607,27 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="44.86328125" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
     <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -7574,8 +7646,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7592,8 +7664,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -7624,7 +7696,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="128"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="129" t="s">
         <v>46</v>
       </c>
@@ -7655,8 +7727,8 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -7695,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -7725,7 +7797,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -7767,7 +7839,7 @@
         <v>/* 口コミID   連番10桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -7809,7 +7881,7 @@
         <v>/* ユーザーID   記入したユーザーのID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -7851,7 +7923,7 @@
         <v>/* ホテルID   記入されたホテルのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -7891,7 +7963,7 @@
         <v>/* 口コミ日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -7933,7 +8005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -7975,7 +8047,7 @@
         <v>/* 口コミ内容   1～5の五段階評価 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -8005,7 +8077,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -8035,7 +8107,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -8065,7 +8137,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -8095,7 +8167,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -8125,7 +8197,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -8155,7 +8227,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -8185,7 +8257,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -8215,7 +8287,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -8245,7 +8317,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -8275,7 +8347,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -8305,7 +8377,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -8335,7 +8407,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -8365,7 +8437,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -8395,7 +8467,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -8427,7 +8499,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -8459,7 +8531,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -8491,7 +8563,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -8523,7 +8595,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -8555,7 +8627,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -8587,7 +8659,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -8619,7 +8691,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -8651,7 +8723,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -8683,7 +8755,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -8715,7 +8787,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -8747,7 +8819,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -8779,7 +8851,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -8811,7 +8883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -8843,7 +8915,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -8873,19 +8945,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8906,25 +8978,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -8969,27 +9041,27 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -9008,8 +9080,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -9026,8 +9098,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -9058,7 +9130,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="144" t="s">
         <v>48</v>
       </c>
@@ -9089,8 +9161,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -9129,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -9159,7 +9231,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -9201,7 +9273,7 @@
         <v>/* ホテルID   県番号(2桁)+連番8 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -9241,7 +9313,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -9281,7 +9353,7 @@
         <v>/* メールアドレス    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -9323,7 +9395,7 @@
         <v>/* 電話番号   ハイフンは抜く */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -9363,7 +9435,7 @@
         <v>/* 建物名    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -9403,7 +9475,7 @@
         <v>/* ホテル名    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -9445,7 +9517,7 @@
         <v>/* ホテル写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -9483,7 +9555,7 @@
         <v>/* ホテル説明    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -9503,7 +9575,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -9521,7 +9593,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -9539,7 +9611,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -9557,7 +9629,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -9587,7 +9659,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -9617,7 +9689,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -9647,7 +9719,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -9677,7 +9749,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -9707,7 +9779,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -9737,7 +9809,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -9767,7 +9839,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -9797,7 +9869,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -9827,7 +9899,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -9857,7 +9929,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -9887,7 +9959,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -9917,7 +9989,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -9947,7 +10019,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -9977,7 +10049,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -10007,7 +10079,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -10037,7 +10109,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -10067,7 +10139,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -10097,7 +10169,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -10127,7 +10199,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -10157,7 +10229,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -10170,7 +10242,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -10183,7 +10255,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -10204,37 +10276,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -10275,31 +10347,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -10318,8 +10390,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -10336,8 +10408,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -10368,7 +10440,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="144" t="s">
         <v>47</v>
       </c>
@@ -10399,8 +10471,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -10439,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -10469,7 +10541,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -10511,7 +10583,7 @@
         <v>/* プランID   ホテルID＋1+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -10551,7 +10623,7 @@
         <v>/* プラン名    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -10591,7 +10663,7 @@
         <v>/* 最大人数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -10631,7 +10703,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -10671,7 +10743,7 @@
         <v>/* 料金    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -10711,7 +10783,7 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
       <c r="B16" s="40" t="s">
         <v>144</v>
@@ -10747,7 +10819,7 @@
         <v>/* プラン説明    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
       <c r="B17" s="40" t="s">
         <v>154</v>
@@ -10781,7 +10853,7 @@
         <v>/* 子供料金    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
       <c r="B18" s="40" t="s">
         <v>155</v>
@@ -10815,7 +10887,7 @@
         <v>/* 乳幼児料金    */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -10833,7 +10905,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -10851,7 +10923,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -10869,7 +10941,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="15"/>
       <c r="B22" s="40"/>
       <c r="C22" s="24"/>
@@ -10897,7 +10969,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="15"/>
       <c r="B23" s="40"/>
       <c r="C23" s="24"/>
@@ -10925,7 +10997,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="15"/>
       <c r="B24" s="40"/>
       <c r="C24" s="24"/>
@@ -10953,7 +11025,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="15"/>
       <c r="B25" s="40"/>
       <c r="C25" s="24"/>
@@ -10981,7 +11053,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="15"/>
       <c r="B26" s="40"/>
       <c r="C26" s="24"/>
@@ -11009,7 +11081,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="15"/>
       <c r="B27" s="40"/>
       <c r="C27" s="24"/>
@@ -11037,7 +11109,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="15"/>
       <c r="B28" s="40"/>
       <c r="C28" s="24"/>
@@ -11065,7 +11137,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="15"/>
       <c r="B29" s="39"/>
       <c r="C29" s="29"/>
@@ -11093,7 +11165,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="15"/>
       <c r="B30" s="39"/>
       <c r="C30" s="29"/>
@@ -11121,7 +11193,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="15"/>
       <c r="B31" s="39"/>
       <c r="C31" s="29"/>
@@ -11149,7 +11221,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="15"/>
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
@@ -11177,7 +11249,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="40"/>
       <c r="C33" s="24"/>
@@ -11205,7 +11277,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="15"/>
       <c r="B34" s="40"/>
       <c r="C34" s="24"/>
@@ -11233,7 +11305,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="15"/>
       <c r="B35" s="40"/>
       <c r="C35" s="24"/>
@@ -11261,7 +11333,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="15"/>
       <c r="B36" s="40"/>
       <c r="C36" s="24"/>
@@ -11289,7 +11361,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="15"/>
       <c r="B37" s="40"/>
       <c r="C37" s="24"/>
@@ -11317,7 +11389,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="15"/>
       <c r="B38" s="40"/>
       <c r="C38" s="24"/>
@@ -11345,7 +11417,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="15"/>
       <c r="B39" s="40"/>
       <c r="C39" s="24"/>
@@ -11373,7 +11445,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="15"/>
       <c r="B40" s="40"/>
       <c r="C40" s="24"/>
@@ -11401,7 +11473,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="16"/>
       <c r="B41" s="41"/>
       <c r="C41" s="14"/>
@@ -11429,7 +11501,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -11442,7 +11514,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -11455,7 +11527,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -11476,37 +11548,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -11548,27 +11620,27 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -11587,8 +11659,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -11605,8 +11677,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -11637,7 +11709,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="144" t="s">
         <v>49</v>
       </c>
@@ -11668,8 +11740,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -11708,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -11738,7 +11810,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -11780,7 +11852,7 @@
         <v>/* 部屋ID   ホテルID＋2+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -11820,7 +11892,7 @@
         <v>/* 冷蔵庫    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -11860,7 +11932,7 @@
         <v>/* ベッド数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -11900,7 +11972,7 @@
         <v>/* バスルーム    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -11940,7 +12012,7 @@
         <v>/* ドライヤー    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -11980,7 +12052,7 @@
         <v>/* テレビ    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -12020,7 +12092,7 @@
         <v>/* WIFI    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -12058,7 +12130,7 @@
         <v>/* ペット    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -12098,7 +12170,7 @@
         <v>/* 部屋写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -12118,7 +12190,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -12138,7 +12210,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -12158,7 +12230,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -12188,7 +12260,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -12218,7 +12290,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -12248,7 +12320,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -12278,7 +12350,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -12308,7 +12380,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -12338,7 +12410,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -12368,7 +12440,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -12398,7 +12470,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -12428,7 +12500,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -12458,7 +12530,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -12488,7 +12560,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -12518,7 +12590,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -12548,7 +12620,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -12578,7 +12650,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -12608,7 +12680,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -12638,7 +12710,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -12668,7 +12740,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -12698,7 +12770,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -12728,7 +12800,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -12758,7 +12830,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -12771,7 +12843,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -12784,7 +12856,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -12805,37 +12877,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -12876,31 +12948,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.875" style="1"/>
+    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -12919,8 +12991,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -12937,8 +13009,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -12969,7 +13041,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="144" t="s">
         <v>44</v>
       </c>
@@ -12979,14 +13051,14 @@
       </c>
       <c r="D6" s="20">
         <f>SUM(E10:E16)</f>
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="E6" s="20">
         <v>100000</v>
       </c>
       <c r="F6" s="20">
         <f>SUMPRODUCT(D6,E6)</f>
-        <v>16400000</v>
+        <v>18400000</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>22</v>
@@ -13000,8 +13072,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -13040,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -13070,7 +13142,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -13114,7 +13186,7 @@
         <v>/* ユーザーID   UR＋連番８文字 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -13154,7 +13226,7 @@
         <v>/* ユーザーパスワード    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -13194,7 +13266,7 @@
         <v>/* メールアドレス    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -13234,7 +13306,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="15">
         <v>7</v>
       </c>
@@ -13278,7 +13350,7 @@
         <v>/* ロール   1→会員　2→ホテル　3→管理者　0→ログインしていない */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A15" s="30">
         <v>1</v>
       </c>
@@ -13310,7 +13382,7 @@
       </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="71" t="str">
-        <f t="shared" ref="Q15" si="5">C15 &amp; " " &amp; D15 &amp; IF(D15="日付/時刻","","(" &amp; E15 &amp; ")") &amp; IF(G15="",""," DEFAULT ( " &amp; G15 &amp; ")")</f>
+        <f t="shared" ref="Q15:Q17" si="5">C15 &amp; " " &amp; D15 &amp; IF(D15="日付/時刻","","(" &amp; E15 &amp; ")") &amp; IF(G15="",""," DEFAULT ( " &amp; G15 &amp; ")")</f>
         <v>USER_NAME VARCHAR(50)</v>
       </c>
       <c r="R15" s="71" t="str">
@@ -13318,82 +13390,142 @@
         <v>/* 名前   日本語なら25文字 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A16" s="15"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="102"/>
+      <c r="B16" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="102">
+        <v>20</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
+      <c r="H16" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
-      <c r="O16" s="46"/>
+      <c r="O16" s="46" t="s">
+        <v>158</v>
+      </c>
       <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q16" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>PHONE_NUMBER INT(20)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="15"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="102"/>
+      <c r="B17" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="102">
+        <v>20</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
+      <c r="H17" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="46"/>
+      <c r="O17" s="46" t="s">
+        <v>160</v>
+      </c>
       <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="Q17" s="71" t="str">
+        <f t="shared" si="5"/>
+        <v>BIRTHDAY VARCHAR(20)</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="15"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="102"/>
+      <c r="B18" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="102">
+        <v>2</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
+      <c r="H18" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
-      <c r="O18" s="46"/>
+      <c r="O18" s="46" t="s">
+        <v>163</v>
+      </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="15"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="102"/>
+      <c r="B19" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="100" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="102">
+        <v>50</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="H19" s="25" t="s">
+        <v>25</v>
+      </c>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
       <c r="M19" s="25"/>
       <c r="N19" s="26"/>
-      <c r="O19" s="46"/>
+      <c r="O19" s="46" t="s">
+        <v>138</v>
+      </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="15"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="24"/>
+      <c r="B20" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="D20" s="32"/>
       <c r="E20" s="102"/>
       <c r="F20" s="24"/>
@@ -13408,10 +13540,14 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="15"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="24"/>
+      <c r="B21" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>167</v>
+      </c>
       <c r="D21" s="25"/>
       <c r="E21" s="102"/>
       <c r="F21" s="24"/>
@@ -13426,7 +13562,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -13456,7 +13592,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -13486,7 +13622,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -13516,7 +13652,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -13546,7 +13682,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -13576,7 +13712,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -13606,7 +13742,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -13636,7 +13772,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -13666,7 +13802,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -13696,7 +13832,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -13726,7 +13862,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -13756,7 +13892,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -13786,7 +13922,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -13816,7 +13952,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -13846,7 +13982,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -13876,7 +14012,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -13906,7 +14042,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -13936,7 +14072,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -13966,7 +14102,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -13996,7 +14132,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -14026,7 +14162,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -14039,7 +14175,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -14052,7 +14188,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -14073,37 +14209,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R45" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R46" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R47" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="R48" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R49" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
       <c r="R50" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0042\システム開発演習\group_project\テーブルレイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B484AC-3DF4-4A64-9C47-B1A24347345E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19DC8B-33E0-48EA-B96A-7511FF9F7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" tabRatio="757" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="757" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -1787,6 +1787,25 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1796,9 +1815,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1811,22 +1827,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="34" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="38" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="19" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="27" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="26" xfId="2" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5331,20 +5331,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="68" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="68" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="68" customWidth="1"/>
+    <col min="1" max="1" width="4.46484375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.73046875" style="68" customWidth="1"/>
+    <col min="4" max="4" width="9.73046875" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="68" customWidth="1"/>
     <col min="6" max="6" width="11" style="68" customWidth="1"/>
     <col min="7" max="7" width="9" style="68"/>
     <col min="8" max="15" width="7.1328125" style="68" customWidth="1"/>
     <col min="16" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -5363,11 +5363,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="44"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="64"/>
       <c r="C3" s="3"/>
@@ -5384,8 +5384,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:20" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
@@ -5407,18 +5407,18 @@
       <c r="G5" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="103" t="s">
+      <c r="H5" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="105"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="118"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="86" t="s">
         <v>34</v>
@@ -5428,16 +5428,16 @@
       <c r="E6" s="52"/>
       <c r="F6" s="83"/>
       <c r="G6" s="82"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
-      <c r="J6" s="113"/>
-      <c r="K6" s="113"/>
-      <c r="L6" s="113"/>
-      <c r="M6" s="113"/>
-      <c r="N6" s="113"/>
-      <c r="O6" s="114"/>
-    </row>
-    <row r="7" spans="1:20" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H6" s="122"/>
+      <c r="I6" s="123"/>
+      <c r="J6" s="123"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="123"/>
+      <c r="M6" s="123"/>
+      <c r="N6" s="123"/>
+      <c r="O6" s="124"/>
+    </row>
+    <row r="7" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
@@ -5461,16 +5461,16 @@
       <c r="G7" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="110"/>
-      <c r="K7" s="110"/>
-      <c r="L7" s="110"/>
-      <c r="M7" s="110"/>
-      <c r="N7" s="110"/>
-      <c r="O7" s="111"/>
-    </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H7" s="119"/>
+      <c r="I7" s="120"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="120"/>
+      <c r="L7" s="120"/>
+      <c r="M7" s="120"/>
+      <c r="N7" s="120"/>
+      <c r="O7" s="121"/>
+    </row>
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
@@ -5494,16 +5494,16 @@
       <c r="G8" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107"/>
-      <c r="N8" s="107"/>
-      <c r="O8" s="108"/>
-    </row>
-    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H8" s="108"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="110"/>
+    </row>
+    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="93" t="s">
         <v>37</v>
       </c>
@@ -5527,16 +5527,16 @@
       <c r="G9" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="110"/>
-      <c r="N9" s="110"/>
-      <c r="O9" s="111"/>
-    </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
+    </row>
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="88" t="s">
         <v>38</v>
       </c>
@@ -5560,21 +5560,21 @@
       <c r="G10" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="107"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="107"/>
-      <c r="N10" s="107"/>
-      <c r="O10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="109"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="109"/>
+      <c r="M10" s="109"/>
+      <c r="N10" s="109"/>
+      <c r="O10" s="110"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="87" t="s">
         <v>39</v>
       </c>
@@ -5598,21 +5598,21 @@
       <c r="G11" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="116"/>
-      <c r="N11" s="116"/>
-      <c r="O11" s="117"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="87" t="s">
         <v>40</v>
       </c>
@@ -5636,21 +5636,21 @@
       <c r="G12" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="106"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
+      <c r="L12" s="109"/>
+      <c r="M12" s="109"/>
+      <c r="N12" s="109"/>
+      <c r="O12" s="110"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="87"/>
       <c r="B13" s="79"/>
       <c r="C13" s="89"/>
@@ -5658,21 +5658,21 @@
       <c r="E13" s="67"/>
       <c r="F13" s="67"/>
       <c r="G13" s="98"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="117"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="79"/>
       <c r="C14" s="51"/>
@@ -5680,16 +5680,16 @@
       <c r="E14" s="52"/>
       <c r="F14" s="67"/>
       <c r="G14" s="53"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="108"/>
-    </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="109"/>
+      <c r="K14" s="109"/>
+      <c r="L14" s="109"/>
+      <c r="M14" s="109"/>
+      <c r="N14" s="109"/>
+      <c r="O14" s="110"/>
+    </row>
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="87"/>
       <c r="B15" s="86"/>
       <c r="C15" s="51"/>
@@ -5697,16 +5697,16 @@
       <c r="E15" s="52"/>
       <c r="F15" s="67"/>
       <c r="G15" s="53"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
-      <c r="O15" s="124"/>
-    </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="113"/>
+    </row>
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="87"/>
       <c r="B16" s="81"/>
       <c r="C16" s="88"/>
@@ -5714,16 +5714,16 @@
       <c r="E16" s="52"/>
       <c r="F16" s="67"/>
       <c r="G16" s="90"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="107"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="108"/>
-    </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H16" s="108"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="109"/>
+      <c r="M16" s="109"/>
+      <c r="N16" s="109"/>
+      <c r="O16" s="110"/>
+    </row>
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="87"/>
       <c r="B17" s="81"/>
       <c r="C17" s="88"/>
@@ -5731,16 +5731,16 @@
       <c r="E17" s="52"/>
       <c r="F17" s="67"/>
       <c r="G17" s="90"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="119"/>
-      <c r="N17" s="119"/>
-      <c r="O17" s="120"/>
-    </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H17" s="106"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="112"/>
+    </row>
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="87"/>
       <c r="B18" s="81"/>
       <c r="C18" s="88"/>
@@ -5748,16 +5748,16 @@
       <c r="E18" s="52"/>
       <c r="F18" s="67"/>
       <c r="G18" s="90"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="118"/>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="123"/>
-    </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="106"/>
+      <c r="M18" s="106"/>
+      <c r="N18" s="106"/>
+      <c r="O18" s="107"/>
+    </row>
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="87"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88"/>
@@ -5765,16 +5765,16 @@
       <c r="E19" s="52"/>
       <c r="F19" s="67"/>
       <c r="G19" s="90"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="119"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
-    </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H19" s="106"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="112"/>
+    </row>
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="87"/>
       <c r="B20" s="81"/>
       <c r="C20" s="88"/>
@@ -5782,16 +5782,16 @@
       <c r="E20" s="52"/>
       <c r="F20" s="67"/>
       <c r="G20" s="90"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="119"/>
-      <c r="K20" s="119"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="119"/>
-      <c r="N20" s="119"/>
-      <c r="O20" s="120"/>
-    </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H20" s="106"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+      <c r="K20" s="111"/>
+      <c r="L20" s="111"/>
+      <c r="M20" s="111"/>
+      <c r="N20" s="111"/>
+      <c r="O20" s="112"/>
+    </row>
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="87"/>
       <c r="B21" s="81"/>
       <c r="C21" s="51"/>
@@ -5799,16 +5799,16 @@
       <c r="E21" s="52"/>
       <c r="F21" s="67"/>
       <c r="G21" s="53"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="119"/>
-      <c r="K21" s="119"/>
-      <c r="L21" s="119"/>
-      <c r="M21" s="119"/>
-      <c r="N21" s="119"/>
-      <c r="O21" s="120"/>
-    </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H21" s="106"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="111"/>
+      <c r="M21" s="111"/>
+      <c r="N21" s="111"/>
+      <c r="O21" s="112"/>
+    </row>
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="87"/>
       <c r="B22" s="81"/>
       <c r="C22" s="51"/>
@@ -5816,16 +5816,16 @@
       <c r="E22" s="52"/>
       <c r="F22" s="67"/>
       <c r="G22" s="53"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
-    </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H22" s="106"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="111"/>
+      <c r="M22" s="111"/>
+      <c r="N22" s="111"/>
+      <c r="O22" s="112"/>
+    </row>
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="87"/>
       <c r="B23" s="81"/>
       <c r="C23" s="51"/>
@@ -5833,16 +5833,16 @@
       <c r="E23" s="52"/>
       <c r="F23" s="67"/>
       <c r="G23" s="53"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
-      <c r="L23" s="107"/>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
-    </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H23" s="108"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="109"/>
+      <c r="N23" s="109"/>
+      <c r="O23" s="110"/>
+    </row>
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
       <c r="B24" s="81"/>
       <c r="C24" s="51"/>
@@ -5850,16 +5850,16 @@
       <c r="E24" s="52"/>
       <c r="F24" s="67"/>
       <c r="G24" s="53"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="107"/>
-      <c r="N24" s="107"/>
-      <c r="O24" s="108"/>
-    </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H24" s="108"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="109"/>
+      <c r="L24" s="109"/>
+      <c r="M24" s="109"/>
+      <c r="N24" s="109"/>
+      <c r="O24" s="110"/>
+    </row>
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54"/>
       <c r="B25" s="81"/>
       <c r="C25" s="51"/>
@@ -5867,16 +5867,16 @@
       <c r="E25" s="52"/>
       <c r="F25" s="67"/>
       <c r="G25" s="53"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="108"/>
-    </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H25" s="108"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
+      <c r="O25" s="110"/>
+    </row>
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54"/>
       <c r="B26" s="81"/>
       <c r="C26" s="51"/>
@@ -5884,16 +5884,16 @@
       <c r="E26" s="52"/>
       <c r="F26" s="67"/>
       <c r="G26" s="53"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="108"/>
-    </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H26" s="108"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="109"/>
+      <c r="M26" s="109"/>
+      <c r="N26" s="109"/>
+      <c r="O26" s="110"/>
+    </row>
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54"/>
       <c r="B27" s="81"/>
       <c r="C27" s="51"/>
@@ -5901,16 +5901,16 @@
       <c r="E27" s="52"/>
       <c r="F27" s="67"/>
       <c r="G27" s="53"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="108"/>
-    </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="108"/>
+      <c r="I27" s="109"/>
+      <c r="J27" s="109"/>
+      <c r="K27" s="109"/>
+      <c r="L27" s="109"/>
+      <c r="M27" s="109"/>
+      <c r="N27" s="109"/>
+      <c r="O27" s="110"/>
+    </row>
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="54"/>
       <c r="B28" s="81"/>
       <c r="C28" s="51"/>
@@ -5918,16 +5918,16 @@
       <c r="E28" s="52"/>
       <c r="F28" s="67"/>
       <c r="G28" s="53"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="119"/>
-      <c r="K28" s="119"/>
-      <c r="L28" s="119"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="119"/>
-      <c r="O28" s="120"/>
-    </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H28" s="106"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="112"/>
+    </row>
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54"/>
       <c r="B29" s="81"/>
       <c r="C29" s="51"/>
@@ -5935,16 +5935,16 @@
       <c r="E29" s="52"/>
       <c r="F29" s="67"/>
       <c r="G29" s="53"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="108"/>
-    </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H29" s="108"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="109"/>
+      <c r="K29" s="109"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="109"/>
+      <c r="O29" s="110"/>
+    </row>
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54"/>
       <c r="B30" s="81"/>
       <c r="C30" s="51"/>
@@ -5952,16 +5952,16 @@
       <c r="E30" s="52"/>
       <c r="F30" s="67"/>
       <c r="G30" s="53"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="108"/>
-    </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H30" s="108"/>
+      <c r="I30" s="109"/>
+      <c r="J30" s="109"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="109"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="109"/>
+      <c r="O30" s="110"/>
+    </row>
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="54"/>
       <c r="B31" s="81"/>
       <c r="C31" s="51"/>
@@ -5969,16 +5969,16 @@
       <c r="E31" s="52"/>
       <c r="F31" s="67"/>
       <c r="G31" s="53"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="107"/>
-      <c r="O31" s="108"/>
-    </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H31" s="108"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="110"/>
+    </row>
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54"/>
       <c r="B32" s="81"/>
       <c r="C32" s="51"/>
@@ -5986,16 +5986,16 @@
       <c r="E32" s="52"/>
       <c r="F32" s="67"/>
       <c r="G32" s="53"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="118"/>
-      <c r="J32" s="118"/>
-      <c r="K32" s="118"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="118"/>
-      <c r="O32" s="123"/>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
+      <c r="L32" s="106"/>
+      <c r="M32" s="106"/>
+      <c r="N32" s="106"/>
+      <c r="O32" s="107"/>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54"/>
       <c r="B33" s="81"/>
       <c r="C33" s="51"/>
@@ -6003,16 +6003,16 @@
       <c r="E33" s="52"/>
       <c r="F33" s="67"/>
       <c r="G33" s="53"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="118"/>
-      <c r="J33" s="118"/>
-      <c r="K33" s="118"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="123"/>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="106"/>
+      <c r="O33" s="107"/>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54"/>
       <c r="B34" s="81"/>
       <c r="C34" s="51"/>
@@ -6020,16 +6020,16 @@
       <c r="E34" s="52"/>
       <c r="F34" s="67"/>
       <c r="G34" s="53"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="118"/>
-      <c r="K34" s="118"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="118"/>
-      <c r="N34" s="118"/>
-      <c r="O34" s="123"/>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="106"/>
+      <c r="O34" s="107"/>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54"/>
       <c r="B35" s="81"/>
       <c r="C35" s="51"/>
@@ -6037,16 +6037,16 @@
       <c r="E35" s="52"/>
       <c r="F35" s="67"/>
       <c r="G35" s="53"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="118"/>
-      <c r="K35" s="118"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="118"/>
-      <c r="O35" s="123"/>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="106"/>
+      <c r="N35" s="106"/>
+      <c r="O35" s="107"/>
+    </row>
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54"/>
       <c r="B36" s="81"/>
       <c r="C36" s="51"/>
@@ -6054,16 +6054,16 @@
       <c r="E36" s="52"/>
       <c r="F36" s="67"/>
       <c r="G36" s="53"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="119"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="119"/>
-      <c r="O36" s="120"/>
-    </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H36" s="106"/>
+      <c r="I36" s="111"/>
+      <c r="J36" s="111"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="111"/>
+      <c r="M36" s="111"/>
+      <c r="N36" s="111"/>
+      <c r="O36" s="112"/>
+    </row>
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54"/>
       <c r="B37" s="81"/>
       <c r="C37" s="51"/>
@@ -6071,16 +6071,16 @@
       <c r="E37" s="52"/>
       <c r="F37" s="67"/>
       <c r="G37" s="53"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="119"/>
-      <c r="K37" s="119"/>
-      <c r="L37" s="119"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="119"/>
-      <c r="O37" s="120"/>
-    </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H37" s="106"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+      <c r="O37" s="112"/>
+    </row>
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55"/>
       <c r="B38" s="81"/>
       <c r="C38" s="56"/>
@@ -6088,19 +6088,19 @@
       <c r="E38" s="57"/>
       <c r="F38" s="57"/>
       <c r="G38" s="58"/>
-      <c r="H38" s="121"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="121"/>
-      <c r="K38" s="121"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="121"/>
-      <c r="N38" s="121"/>
-      <c r="O38" s="122"/>
-    </row>
-    <row r="39" spans="1:15" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H38" s="114"/>
+      <c r="I38" s="114"/>
+      <c r="J38" s="114"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
+      <c r="N38" s="114"/>
+      <c r="O38" s="115"/>
+    </row>
+    <row r="39" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="69"/>
       <c r="C40" s="5"/>
@@ -6117,16 +6117,34 @@
       <c r="N40" s="5"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="H44" s="68" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="H5:O5"/>
+    <mergeCell ref="H10:O10"/>
+    <mergeCell ref="H12:O12"/>
+    <mergeCell ref="H7:O7"/>
+    <mergeCell ref="H8:O8"/>
+    <mergeCell ref="H6:O6"/>
+    <mergeCell ref="H11:O11"/>
+    <mergeCell ref="H9:O9"/>
+    <mergeCell ref="H24:O24"/>
+    <mergeCell ref="H25:O25"/>
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="H23:O23"/>
+    <mergeCell ref="H28:O28"/>
+    <mergeCell ref="H38:O38"/>
+    <mergeCell ref="H36:O36"/>
+    <mergeCell ref="H37:O37"/>
+    <mergeCell ref="H34:O34"/>
+    <mergeCell ref="H35:O35"/>
     <mergeCell ref="H13:O13"/>
     <mergeCell ref="H32:O32"/>
     <mergeCell ref="H33:O33"/>
@@ -6143,24 +6161,6 @@
     <mergeCell ref="H18:O18"/>
     <mergeCell ref="H19:O19"/>
     <mergeCell ref="H16:O16"/>
-    <mergeCell ref="H38:O38"/>
-    <mergeCell ref="H36:O36"/>
-    <mergeCell ref="H37:O37"/>
-    <mergeCell ref="H34:O34"/>
-    <mergeCell ref="H35:O35"/>
-    <mergeCell ref="H24:O24"/>
-    <mergeCell ref="H25:O25"/>
-    <mergeCell ref="H22:O22"/>
-    <mergeCell ref="H23:O23"/>
-    <mergeCell ref="H28:O28"/>
-    <mergeCell ref="H5:O5"/>
-    <mergeCell ref="H10:O10"/>
-    <mergeCell ref="H12:O12"/>
-    <mergeCell ref="H7:O7"/>
-    <mergeCell ref="H8:O8"/>
-    <mergeCell ref="H6:O6"/>
-    <mergeCell ref="H11:O11"/>
-    <mergeCell ref="H9:O9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.52" right="0.21" top="0.81" bottom="0.27" header="0.36" footer="0.2"/>
@@ -6177,31 +6177,31 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
     <col min="15" max="15" width="44.86328125" style="35" customWidth="1"/>
     <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.73046875" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.46484375" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.46484375" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -6220,8 +6220,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6238,8 +6238,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -6270,7 +6270,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="128"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="129" t="s">
         <v>45</v>
       </c>
@@ -6301,8 +6301,8 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
     </row>
-    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -6371,7 +6371,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>/* 予約情報ID   yyyymm+ユーザーID+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>/* ユーザーID    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>/* プランID    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>/* 予約日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>/* 宿泊開始日    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>/* 宿泊終了日    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -7511,19 +7511,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -7544,25 +7544,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -7607,27 +7607,27 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.36328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
     <col min="15" max="15" width="44.86328125" style="35" customWidth="1"/>
     <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.7265625" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.73046875" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.46484375" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.46484375" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -7646,8 +7646,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7664,8 +7664,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -7696,7 +7696,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="128"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="129" t="s">
         <v>46</v>
       </c>
@@ -7727,8 +7727,8 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
     </row>
-    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -7797,7 +7797,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>/* 口コミID   連番10桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>/* ユーザーID   記入したユーザーのID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>/* ホテルID   記入されたホテルのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>/* 口コミ日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>/* 口コミ内容   1～5の五段階評価 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -8945,19 +8945,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8978,25 +8978,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -9041,27 +9041,27 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
     <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
     <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
     <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
     <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -9080,8 +9080,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -9098,8 +9098,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -9130,7 +9130,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="144" t="s">
         <v>48</v>
       </c>
@@ -9161,8 +9161,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -9231,7 +9231,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>/* ホテルID   県番号(2桁)+連番8 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>/* メールアドレス    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>/* 電話番号   ハイフンは抜く */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>/* 建物名    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>/* ホテル名    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>/* ホテル写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -9555,7 +9555,7 @@
         <v>/* ホテル説明    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -9575,7 +9575,7 @@
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -9593,7 +9593,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -9611,7 +9611,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -9629,7 +9629,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -9659,7 +9659,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -9809,7 +9809,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -9839,7 +9839,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -9929,7 +9929,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -10109,7 +10109,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -10169,7 +10169,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -10199,7 +10199,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -10242,7 +10242,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -10276,37 +10276,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -10351,27 +10351,27 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
     <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
     <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
     <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
     <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -10390,8 +10390,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -10408,8 +10408,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -10440,7 +10440,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="144" t="s">
         <v>47</v>
       </c>
@@ -10471,8 +10471,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -10511,7 +10511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -10541,7 +10541,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -10583,7 +10583,7 @@
         <v>/* プランID   ホテルID＋1+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>/* プラン名    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -10663,7 +10663,7 @@
         <v>/* 最大人数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -10743,7 +10743,7 @@
         <v>/* 料金    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -10783,7 +10783,7 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="40" t="s">
         <v>144</v>
@@ -10819,7 +10819,7 @@
         <v>/* プラン説明    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="40" t="s">
         <v>154</v>
@@ -10853,7 +10853,7 @@
         <v>/* 子供料金    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="40" t="s">
         <v>155</v>
@@ -10887,7 +10887,7 @@
         <v>/* 乳幼児料金    */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -10905,7 +10905,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -10923,7 +10923,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -10941,7 +10941,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="40"/>
       <c r="C22" s="24"/>
@@ -10969,7 +10969,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="40"/>
       <c r="C23" s="24"/>
@@ -10997,7 +10997,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="40"/>
       <c r="C24" s="24"/>
@@ -11025,7 +11025,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="40"/>
       <c r="C25" s="24"/>
@@ -11053,7 +11053,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="40"/>
       <c r="C26" s="24"/>
@@ -11081,7 +11081,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="40"/>
       <c r="C27" s="24"/>
@@ -11109,7 +11109,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="40"/>
       <c r="C28" s="24"/>
@@ -11137,7 +11137,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="39"/>
       <c r="C29" s="29"/>
@@ -11165,7 +11165,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="39"/>
       <c r="C30" s="29"/>
@@ -11193,7 +11193,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="39"/>
       <c r="C31" s="29"/>
@@ -11221,7 +11221,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
@@ -11249,7 +11249,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="40"/>
       <c r="C33" s="24"/>
@@ -11277,7 +11277,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="40"/>
       <c r="C34" s="24"/>
@@ -11305,7 +11305,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="40"/>
       <c r="C35" s="24"/>
@@ -11333,7 +11333,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="40"/>
       <c r="C36" s="24"/>
@@ -11361,7 +11361,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="40"/>
       <c r="C37" s="24"/>
@@ -11389,7 +11389,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="40"/>
       <c r="C38" s="24"/>
@@ -11417,7 +11417,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="40"/>
       <c r="C39" s="24"/>
@@ -11445,7 +11445,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="40"/>
       <c r="C40" s="24"/>
@@ -11473,7 +11473,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="41"/>
       <c r="C41" s="14"/>
@@ -11501,7 +11501,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -11527,7 +11527,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -11548,37 +11548,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -11620,27 +11620,27 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
     <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
     <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
     <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
     <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -11659,8 +11659,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -11677,8 +11677,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -11709,7 +11709,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="144" t="s">
         <v>49</v>
       </c>
@@ -11740,8 +11740,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -11810,7 +11810,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -11852,7 +11852,7 @@
         <v>/* 部屋ID   ホテルID＋2+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>/* 冷蔵庫    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>/* ベッド数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>/* バスルーム    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>/* ドライヤー    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>/* テレビ    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -12092,7 +12092,7 @@
         <v>/* WIFI    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -12130,7 +12130,7 @@
         <v>/* ペット    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>/* 部屋写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -12190,7 +12190,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -12210,7 +12210,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -12230,7 +12230,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -12290,7 +12290,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -12350,7 +12350,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -12410,7 +12410,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -12470,7 +12470,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -12590,7 +12590,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -12770,7 +12770,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -12830,7 +12830,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -12856,7 +12856,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -12877,37 +12877,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -12948,31 +12948,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="13.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6328125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.6328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
     <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
     <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.7265625" style="71" customWidth="1"/>
+    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
     <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
     <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
     <col min="20" max="16384" width="8.86328125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -12991,8 +12991,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="1:18" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -13009,8 +13009,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="14.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -13041,7 +13041,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="144" t="s">
         <v>44</v>
       </c>
@@ -13072,8 +13072,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -13112,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -13142,7 +13142,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="14" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -13186,7 +13186,7 @@
         <v>/* ユーザーID   UR＋連番８文字 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -13226,7 +13226,7 @@
         <v>/* ユーザーパスワード    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>/* メールアドレス    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -13306,7 +13306,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>7</v>
       </c>
@@ -13350,7 +13350,7 @@
         <v>/* ロール   1→会員　2→ホテル　3→管理者　0→ログインしていない */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>1</v>
       </c>
@@ -13390,7 +13390,7 @@
         <v>/* 名前   日本語なら25文字 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="40" t="s">
         <v>104</v>
@@ -13424,7 +13424,7 @@
         <v>PHONE_NUMBER INT(20)</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="40" t="s">
         <v>159</v>
@@ -13458,7 +13458,7 @@
         <v>BIRTHDAY VARCHAR(20)</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="40" t="s">
         <v>161</v>
@@ -13488,7 +13488,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="40" t="s">
         <v>164</v>
@@ -13518,7 +13518,7 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="40" t="s">
         <v>58</v>
@@ -13540,7 +13540,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="40" t="s">
         <v>166</v>
@@ -13562,7 +13562,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -13592,7 +13592,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -13652,7 +13652,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -13682,7 +13682,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -13712,7 +13712,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -13862,7 +13862,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -13892,7 +13892,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -13922,7 +13922,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -13952,7 +13952,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -13982,7 +13982,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -14072,7 +14072,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -14102,7 +14102,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -14132,7 +14132,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="14" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -14175,7 +14175,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -14209,37 +14209,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R45" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R46" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R47" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="R48" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R49" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.45">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R50" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>

--- a/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
+++ b/テーブルレイアウト/テーブルレイアウト 大熊.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\k022c0080\グループ演習\group_project\テーブルレイアウト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\project\テーブルレイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19DC8B-33E0-48EA-B96A-7511FF9F7C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37135A29-C913-45D9-9E17-AF75C2E3DB53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" tabRatio="757" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="405" yWindow="4185" windowWidth="21600" windowHeight="11295" tabRatio="757" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="90" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="170">
   <si>
     <t>備考</t>
   </si>
@@ -5331,20 +5331,20 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.46484375" style="68" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="69" customWidth="1"/>
-    <col min="3" max="3" width="24.73046875" style="68" customWidth="1"/>
-    <col min="4" max="4" width="9.73046875" style="68" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="68" customWidth="1"/>
+    <col min="1" max="1" width="4.5" style="68" customWidth="1"/>
+    <col min="2" max="2" width="22.375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="68" customWidth="1"/>
+    <col min="4" max="4" width="9.75" style="68" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="68" customWidth="1"/>
     <col min="6" max="6" width="11" style="68" customWidth="1"/>
     <col min="7" max="7" width="9" style="68"/>
-    <col min="8" max="15" width="7.1328125" style="68" customWidth="1"/>
+    <col min="8" max="15" width="7.125" style="68" customWidth="1"/>
     <col min="16" max="16384" width="9" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -5363,11 +5363,11 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B2" s="44"/>
       <c r="O2" s="35"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="1" customFormat="1" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="64"/>
       <c r="C3" s="3"/>
@@ -5384,8 +5384,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:20" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="66" t="s">
         <v>30</v>
       </c>
@@ -5418,7 +5418,7 @@
       <c r="N5" s="117"/>
       <c r="O5" s="118"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="54"/>
       <c r="B6" s="86" t="s">
         <v>34</v>
@@ -5437,7 +5437,7 @@
       <c r="N6" s="123"/>
       <c r="O6" s="124"/>
     </row>
-    <row r="7" spans="1:20" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
         <v>35</v>
       </c>
@@ -5470,7 +5470,7 @@
       <c r="N7" s="120"/>
       <c r="O7" s="121"/>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="87" t="s">
         <v>36</v>
       </c>
@@ -5503,7 +5503,7 @@
       <c r="N8" s="109"/>
       <c r="O8" s="110"/>
     </row>
-    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="93" t="s">
         <v>37</v>
       </c>
@@ -5536,7 +5536,7 @@
       <c r="N9" s="120"/>
       <c r="O9" s="121"/>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="88" t="s">
         <v>38</v>
       </c>
@@ -5574,7 +5574,7 @@
       <c r="S10"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="87" t="s">
         <v>39</v>
       </c>
@@ -5612,7 +5612,7 @@
       <c r="S11"/>
       <c r="T11"/>
     </row>
-    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="87" t="s">
         <v>40</v>
       </c>
@@ -5650,7 +5650,7 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="87"/>
       <c r="B13" s="79"/>
       <c r="C13" s="89"/>
@@ -5672,7 +5672,7 @@
       <c r="S13"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="54"/>
       <c r="B14" s="79"/>
       <c r="C14" s="51"/>
@@ -5689,7 +5689,7 @@
       <c r="N14" s="109"/>
       <c r="O14" s="110"/>
     </row>
-    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="87"/>
       <c r="B15" s="86"/>
       <c r="C15" s="51"/>
@@ -5706,7 +5706,7 @@
       <c r="N15" s="108"/>
       <c r="O15" s="113"/>
     </row>
-    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="87"/>
       <c r="B16" s="81"/>
       <c r="C16" s="88"/>
@@ -5723,7 +5723,7 @@
       <c r="N16" s="109"/>
       <c r="O16" s="110"/>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="87"/>
       <c r="B17" s="81"/>
       <c r="C17" s="88"/>
@@ -5740,7 +5740,7 @@
       <c r="N17" s="111"/>
       <c r="O17" s="112"/>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="87"/>
       <c r="B18" s="81"/>
       <c r="C18" s="88"/>
@@ -5757,7 +5757,7 @@
       <c r="N18" s="106"/>
       <c r="O18" s="107"/>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="87"/>
       <c r="B19" s="81"/>
       <c r="C19" s="88"/>
@@ -5774,7 +5774,7 @@
       <c r="N19" s="111"/>
       <c r="O19" s="112"/>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="87"/>
       <c r="B20" s="81"/>
       <c r="C20" s="88"/>
@@ -5791,7 +5791,7 @@
       <c r="N20" s="111"/>
       <c r="O20" s="112"/>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="87"/>
       <c r="B21" s="81"/>
       <c r="C21" s="51"/>
@@ -5808,7 +5808,7 @@
       <c r="N21" s="111"/>
       <c r="O21" s="112"/>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="87"/>
       <c r="B22" s="81"/>
       <c r="C22" s="51"/>
@@ -5825,7 +5825,7 @@
       <c r="N22" s="111"/>
       <c r="O22" s="112"/>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="87"/>
       <c r="B23" s="81"/>
       <c r="C23" s="51"/>
@@ -5842,7 +5842,7 @@
       <c r="N23" s="109"/>
       <c r="O23" s="110"/>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="54"/>
       <c r="B24" s="81"/>
       <c r="C24" s="51"/>
@@ -5859,7 +5859,7 @@
       <c r="N24" s="109"/>
       <c r="O24" s="110"/>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="54"/>
       <c r="B25" s="81"/>
       <c r="C25" s="51"/>
@@ -5876,7 +5876,7 @@
       <c r="N25" s="109"/>
       <c r="O25" s="110"/>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="54"/>
       <c r="B26" s="81"/>
       <c r="C26" s="51"/>
@@ -5893,7 +5893,7 @@
       <c r="N26" s="109"/>
       <c r="O26" s="110"/>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="54"/>
       <c r="B27" s="81"/>
       <c r="C27" s="51"/>
@@ -5910,7 +5910,7 @@
       <c r="N27" s="109"/>
       <c r="O27" s="110"/>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="54"/>
       <c r="B28" s="81"/>
       <c r="C28" s="51"/>
@@ -5927,7 +5927,7 @@
       <c r="N28" s="111"/>
       <c r="O28" s="112"/>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="54"/>
       <c r="B29" s="81"/>
       <c r="C29" s="51"/>
@@ -5944,7 +5944,7 @@
       <c r="N29" s="109"/>
       <c r="O29" s="110"/>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="54"/>
       <c r="B30" s="81"/>
       <c r="C30" s="51"/>
@@ -5961,7 +5961,7 @@
       <c r="N30" s="109"/>
       <c r="O30" s="110"/>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="54"/>
       <c r="B31" s="81"/>
       <c r="C31" s="51"/>
@@ -5978,7 +5978,7 @@
       <c r="N31" s="109"/>
       <c r="O31" s="110"/>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="54"/>
       <c r="B32" s="81"/>
       <c r="C32" s="51"/>
@@ -5995,7 +5995,7 @@
       <c r="N32" s="106"/>
       <c r="O32" s="107"/>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="54"/>
       <c r="B33" s="81"/>
       <c r="C33" s="51"/>
@@ -6012,7 +6012,7 @@
       <c r="N33" s="106"/>
       <c r="O33" s="107"/>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="54"/>
       <c r="B34" s="81"/>
       <c r="C34" s="51"/>
@@ -6029,7 +6029,7 @@
       <c r="N34" s="106"/>
       <c r="O34" s="107"/>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="54"/>
       <c r="B35" s="81"/>
       <c r="C35" s="51"/>
@@ -6046,7 +6046,7 @@
       <c r="N35" s="106"/>
       <c r="O35" s="107"/>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="54"/>
       <c r="B36" s="81"/>
       <c r="C36" s="51"/>
@@ -6063,7 +6063,7 @@
       <c r="N36" s="111"/>
       <c r="O36" s="112"/>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="54"/>
       <c r="B37" s="81"/>
       <c r="C37" s="51"/>
@@ -6080,7 +6080,7 @@
       <c r="N37" s="111"/>
       <c r="O37" s="112"/>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" s="1" customFormat="1" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A38" s="55"/>
       <c r="B38" s="81"/>
       <c r="C38" s="56"/>
@@ -6097,10 +6097,10 @@
       <c r="N38" s="114"/>
       <c r="O38" s="115"/>
     </row>
-    <row r="39" spans="1:15" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="65"/>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="69"/>
       <c r="C40" s="5"/>
@@ -6117,10 +6117,10 @@
       <c r="N40" s="5"/>
       <c r="O40" s="37"/>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.15">
       <c r="H44" s="68" t="s">
         <v>20</v>
       </c>
@@ -6177,31 +6177,31 @@
   </sheetPr>
   <dimension ref="A1:R51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.86328125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.73046875" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.46484375" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.46484375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="1"/>
+    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -6220,8 +6220,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6238,8 +6238,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -6270,7 +6270,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="128"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="129" t="s">
         <v>45</v>
       </c>
@@ -6301,8 +6301,8 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
     </row>
-    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -6371,7 +6371,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>/* 予約情報ID   yyyymm+ユーザーID+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>/* ユーザーID    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>/* プランID    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -6533,7 +6533,7 @@
         <v>/* 予約日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -6573,7 +6573,7 @@
         <v>/* 宿泊開始日    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>/* 宿泊終了日    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -6793,7 +6793,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -6853,7 +6853,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -6973,7 +6973,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -7033,7 +7033,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -7161,7 +7161,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -7193,7 +7193,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -7225,7 +7225,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -7289,7 +7289,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -7321,7 +7321,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -7417,7 +7417,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -7449,7 +7449,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -7511,19 +7511,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -7544,25 +7544,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -7607,27 +7607,27 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.86328125" style="35" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26.73046875" style="71" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="61.46484375" style="71" customWidth="1"/>
-    <col min="19" max="19" width="61.46484375" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="1"/>
+    <col min="15" max="15" width="44.875" style="35" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="26.75" style="71" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="61.5" style="71" customWidth="1"/>
+    <col min="19" max="19" width="61.5" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -7646,8 +7646,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7664,8 +7664,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="36"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -7696,7 +7696,7 @@
       <c r="N5" s="126"/>
       <c r="O5" s="128"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="129" t="s">
         <v>46</v>
       </c>
@@ -7727,8 +7727,8 @@
       <c r="N6" s="132"/>
       <c r="O6" s="133"/>
     </row>
-    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -7797,7 +7797,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>/* 口コミID   連番10桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -7881,7 +7881,7 @@
         <v>/* ユーザーID   記入したユーザーのID */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>/* ホテルID   記入されたホテルのID */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>/* 口コミ日    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>/* 口コミ内容   1～5の五段階評価 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -8137,7 +8137,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -8197,7 +8197,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -8227,7 +8227,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -8257,7 +8257,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -8287,7 +8287,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -8377,7 +8377,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -8407,7 +8407,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -8437,7 +8437,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -8467,7 +8467,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -8499,7 +8499,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -8563,7 +8563,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A41" s="15">
         <v>32</v>
       </c>
@@ -8851,7 +8851,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A42" s="15">
         <v>33</v>
       </c>
@@ -8883,7 +8883,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A43" s="15">
         <v>34</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>35</v>
       </c>
@@ -8945,19 +8945,19 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -8978,25 +8978,25 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="51" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R51" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -9037,31 +9037,31 @@
   </sheetPr>
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -9080,8 +9080,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -9098,8 +9098,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -9130,7 +9130,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>48</v>
       </c>
@@ -9161,8 +9161,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -9201,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -9231,7 +9231,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -9273,7 +9273,7 @@
         <v>/* ホテルID   県番号(2桁)+連番8 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>/* メールアドレス    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -9395,7 +9395,7 @@
         <v>/* 電話番号   ハイフンは抜く */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -9435,7 +9435,7 @@
         <v>/* 建物名    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -9475,7 +9475,7 @@
         <v>/* ホテル名    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -9517,7 +9517,7 @@
         <v>/* ホテル写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>152</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="E17" s="102">
         <v>1200</v>
@@ -9548,19 +9548,23 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="71" t="str">
         <f t="shared" si="0"/>
-        <v>HOTEL_EXPLAIN CHAR(1200)</v>
+        <v>HOTEL_EXPLAIN TEXT(1200)</v>
       </c>
       <c r="R17" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/* ホテル説明    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="24"/>
+      <c r="B18" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="D18" s="32"/>
       <c r="E18" s="102"/>
       <c r="F18" s="24"/>
@@ -9574,8 +9578,12 @@
       <c r="N18" s="26"/>
       <c r="O18" s="46"/>
       <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R18" s="71" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 郵便番号    */</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -9593,7 +9601,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -9611,7 +9619,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -9629,7 +9637,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -9659,7 +9667,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -9689,7 +9697,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -9719,7 +9727,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -9749,7 +9757,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -9779,7 +9787,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -9809,7 +9817,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -9839,7 +9847,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -9869,7 +9877,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -9899,7 +9907,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -9929,7 +9937,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -9959,7 +9967,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -9989,7 +9997,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -10019,7 +10027,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -10049,7 +10057,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -10079,7 +10087,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -10109,7 +10117,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -10139,7 +10147,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -10169,7 +10177,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -10199,7 +10207,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -10229,7 +10237,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -10242,7 +10250,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -10255,7 +10263,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -10276,37 +10284,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -10351,27 +10359,27 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -10390,8 +10398,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -10408,8 +10416,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -10440,7 +10448,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>47</v>
       </c>
@@ -10471,8 +10479,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -10511,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -10541,7 +10549,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -10583,7 +10591,7 @@
         <v>/* プランID   ホテルID＋1+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -10623,7 +10631,7 @@
         <v>/* プラン名    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -10663,7 +10671,7 @@
         <v>/* 最大人数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -10703,7 +10711,7 @@
         <v>/* ホテルID    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -10743,7 +10751,7 @@
         <v>/* 料金    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -10783,7 +10791,7 @@
         <v>/* 部屋ID    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="40" t="s">
         <v>144</v>
@@ -10819,7 +10827,7 @@
         <v>/* プラン説明    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="40" t="s">
         <v>154</v>
@@ -10853,7 +10861,7 @@
         <v>/* 子供料金    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="40" t="s">
         <v>155</v>
@@ -10887,7 +10895,7 @@
         <v>/* 乳幼児料金    */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40"/>
       <c r="C19" s="24"/>
@@ -10905,7 +10913,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40"/>
       <c r="C20" s="24"/>
@@ -10923,7 +10931,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40"/>
       <c r="C21" s="24"/>
@@ -10941,7 +10949,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="40"/>
       <c r="C22" s="24"/>
@@ -10969,7 +10977,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15"/>
       <c r="B23" s="40"/>
       <c r="C23" s="24"/>
@@ -10997,7 +11005,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15"/>
       <c r="B24" s="40"/>
       <c r="C24" s="24"/>
@@ -11025,7 +11033,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15"/>
       <c r="B25" s="40"/>
       <c r="C25" s="24"/>
@@ -11053,7 +11061,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15"/>
       <c r="B26" s="40"/>
       <c r="C26" s="24"/>
@@ -11081,7 +11089,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15"/>
       <c r="B27" s="40"/>
       <c r="C27" s="24"/>
@@ -11109,7 +11117,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="40"/>
       <c r="C28" s="24"/>
@@ -11137,7 +11145,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="39"/>
       <c r="C29" s="29"/>
@@ -11165,7 +11173,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15"/>
       <c r="B30" s="39"/>
       <c r="C30" s="29"/>
@@ -11193,7 +11201,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15"/>
       <c r="B31" s="39"/>
       <c r="C31" s="29"/>
@@ -11221,7 +11229,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15"/>
       <c r="B32" s="9"/>
       <c r="C32" s="24"/>
@@ -11249,7 +11257,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="40"/>
       <c r="C33" s="24"/>
@@ -11277,7 +11285,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="40"/>
       <c r="C34" s="24"/>
@@ -11305,7 +11313,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
       <c r="B35" s="40"/>
       <c r="C35" s="24"/>
@@ -11333,7 +11341,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15"/>
       <c r="B36" s="40"/>
       <c r="C36" s="24"/>
@@ -11361,7 +11369,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="40"/>
       <c r="C37" s="24"/>
@@ -11389,7 +11397,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="40"/>
       <c r="C38" s="24"/>
@@ -11417,7 +11425,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15"/>
       <c r="B39" s="40"/>
       <c r="C39" s="24"/>
@@ -11445,7 +11453,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15"/>
       <c r="B40" s="40"/>
       <c r="C40" s="24"/>
@@ -11473,7 +11481,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16"/>
       <c r="B41" s="41"/>
       <c r="C41" s="14"/>
@@ -11501,7 +11509,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -11514,7 +11522,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -11527,7 +11535,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -11548,37 +11556,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -11620,27 +11628,27 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -11659,8 +11667,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -11677,8 +11685,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -11709,7 +11717,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>49</v>
       </c>
@@ -11740,8 +11748,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -11780,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -11810,7 +11818,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -11852,7 +11860,7 @@
         <v>/* 部屋ID   ホテルID＋2+連番3桁 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -11892,7 +11900,7 @@
         <v>/* 冷蔵庫    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -11932,7 +11940,7 @@
         <v>/* ベッド数    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -11972,7 +11980,7 @@
         <v>/* バスルーム    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -12012,7 +12020,7 @@
         <v>/* ドライヤー    */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="15">
         <v>6</v>
       </c>
@@ -12052,7 +12060,7 @@
         <v>/* テレビ    */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15">
         <v>7</v>
       </c>
@@ -12092,7 +12100,7 @@
         <v>/* WIFI    */</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15">
         <v>8</v>
       </c>
@@ -12130,7 +12138,7 @@
         <v>/* ペット    */</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15">
         <v>9</v>
       </c>
@@ -12170,7 +12178,7 @@
         <v>/* 部屋写真   images/配下に写真を置く images/〇〇〇 */</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15">
         <v>10</v>
       </c>
@@ -12190,7 +12198,7 @@
       <c r="O19" s="46"/>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15">
         <v>11</v>
       </c>
@@ -12210,7 +12218,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15">
         <v>12</v>
       </c>
@@ -12230,7 +12238,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -12260,7 +12268,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -12290,7 +12298,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -12320,7 +12328,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -12350,7 +12358,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -12380,7 +12388,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -12410,7 +12418,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -12440,7 +12448,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -12470,7 +12478,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -12500,7 +12508,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -12530,7 +12538,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -12560,7 +12568,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -12590,7 +12598,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -12620,7 +12628,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -12650,7 +12658,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -12680,7 +12688,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -12710,7 +12718,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -12740,7 +12748,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -12770,7 +12778,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -12800,7 +12808,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -12830,7 +12838,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -12843,7 +12851,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -12856,7 +12864,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -12877,37 +12885,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="1"/>
         <v>/*     */</v>
@@ -12949,30 +12957,30 @@
   <dimension ref="A1:R50"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B21" sqref="B21:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.73046875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.59765625" style="35" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.625" style="1" customWidth="1"/>
     <col min="10" max="14" width="3" style="1" customWidth="1"/>
-    <col min="15" max="15" width="44.86328125" style="44" customWidth="1"/>
-    <col min="16" max="16" width="8.86328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.73046875" style="71" customWidth="1"/>
-    <col min="18" max="18" width="8.86328125" style="71" customWidth="1"/>
-    <col min="19" max="19" width="8.86328125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="1"/>
+    <col min="15" max="15" width="44.875" style="44" customWidth="1"/>
+    <col min="16" max="16" width="8.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.75" style="71" customWidth="1"/>
+    <col min="18" max="18" width="8.875" style="71" customWidth="1"/>
+    <col min="19" max="19" width="8.875" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>33</v>
       </c>
@@ -12991,8 +12999,8 @@
       <c r="N1" s="2"/>
       <c r="O1" s="43"/>
     </row>
-    <row r="2" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:18" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7"/>
       <c r="B3" s="38"/>
       <c r="C3" s="3"/>
@@ -13009,8 +13017,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="45"/>
     </row>
-    <row r="4" spans="1:18" ht="13.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A5" s="125" t="s">
         <v>1</v>
       </c>
@@ -13041,7 +13049,7 @@
       <c r="N5" s="142"/>
       <c r="O5" s="143"/>
     </row>
-    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="144" t="s">
         <v>44</v>
       </c>
@@ -13072,8 +13080,8 @@
       <c r="N6" s="146"/>
       <c r="O6" s="147"/>
     </row>
-    <row r="7" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A8" s="134" t="s">
         <v>2</v>
       </c>
@@ -13112,7 +13120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="78" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A9" s="135"/>
       <c r="B9" s="137"/>
       <c r="C9" s="137"/>
@@ -13142,7 +13150,7 @@
       <c r="Q9" s="77"/>
       <c r="R9" s="77"/>
     </row>
-    <row r="10" spans="1:18" ht="13.15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15">
         <v>5</v>
       </c>
@@ -13186,7 +13194,7 @@
         <v>/* ユーザーID   UR＋連番８文字 */</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -13226,7 +13234,7 @@
         <v>/* ユーザーパスワード    */</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -13266,7 +13274,7 @@
         <v>/* メールアドレス    */</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -13306,7 +13314,7 @@
         <v>/* 住所    */</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="15">
         <v>7</v>
       </c>
@@ -13350,7 +13358,7 @@
         <v>/* ロール   1→会員　2→ホテル　3→管理者　0→ログインしていない */</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>1</v>
       </c>
@@ -13390,7 +13398,7 @@
         <v>/* 名前   日本語なら25文字 */</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="40" t="s">
         <v>104</v>
@@ -13424,7 +13432,7 @@
         <v>PHONE_NUMBER INT(20)</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="40" t="s">
         <v>159</v>
@@ -13458,7 +13466,7 @@
         <v>BIRTHDAY VARCHAR(20)</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
       <c r="B18" s="40" t="s">
         <v>161</v>
@@ -13488,7 +13496,7 @@
       </c>
       <c r="P18" s="6"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A19" s="15"/>
       <c r="B19" s="40" t="s">
         <v>164</v>
@@ -13518,7 +13526,7 @@
       </c>
       <c r="P19" s="6"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A20" s="15"/>
       <c r="B20" s="40" t="s">
         <v>58</v>
@@ -13540,7 +13548,7 @@
       <c r="O20" s="46"/>
       <c r="P20" s="6"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="40" t="s">
         <v>166</v>
@@ -13562,7 +13570,7 @@
       <c r="O21" s="46"/>
       <c r="P21" s="6"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A22" s="15">
         <v>13</v>
       </c>
@@ -13592,7 +13600,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A23" s="15">
         <v>14</v>
       </c>
@@ -13622,7 +13630,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A24" s="15">
         <v>15</v>
       </c>
@@ -13652,7 +13660,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A25" s="15">
         <v>16</v>
       </c>
@@ -13682,7 +13690,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A26" s="15">
         <v>17</v>
       </c>
@@ -13712,7 +13720,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>18</v>
       </c>
@@ -13742,7 +13750,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>19</v>
       </c>
@@ -13772,7 +13780,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>20</v>
       </c>
@@ -13802,7 +13810,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>21</v>
       </c>
@@ -13832,7 +13840,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>22</v>
       </c>
@@ -13862,7 +13870,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>23</v>
       </c>
@@ -13892,7 +13900,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>24</v>
       </c>
@@ -13922,7 +13930,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>25</v>
       </c>
@@ -13952,7 +13960,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A35" s="15">
         <v>26</v>
       </c>
@@ -13982,7 +13990,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A36" s="15">
         <v>27</v>
       </c>
@@ -14012,7 +14020,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -14042,7 +14050,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>29</v>
       </c>
@@ -14072,7 +14080,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A39" s="15">
         <v>30</v>
       </c>
@@ -14102,7 +14110,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A40" s="15">
         <v>31</v>
       </c>
@@ -14132,7 +14140,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="13.15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A41" s="16">
         <v>32</v>
       </c>
@@ -14162,7 +14170,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P42" s="6" t="s">
         <v>29</v>
       </c>
@@ -14175,7 +14183,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.15">
       <c r="P43" s="6" t="s">
         <v>29</v>
       </c>
@@ -14188,7 +14196,7 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A44" s="5"/>
       <c r="B44" s="37"/>
       <c r="C44" s="5"/>
@@ -14209,37 +14217,37 @@
         <v>/*     */</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R45" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R46" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R47" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.15">
       <c r="R48" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="49" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R49" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
       </c>
     </row>
-    <row r="50" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="18:18" x14ac:dyDescent="0.15">
       <c r="R50" s="71" t="str">
         <f t="shared" si="2"/>
         <v>/*     */</v>
